--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1446186.539048163</v>
+        <v>1506445.989216107</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13360835.96253918</v>
+        <v>11943472.88418848</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2460204.061553705</v>
+        <v>1195188.384728778</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6770056.980536226</v>
+        <v>7185877.871721851</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>302.1469226569258</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>368.803222276793</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -829,13 +831,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>19.53872709080477</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,10 +873,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -883,7 +885,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>111.6817749316121</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>322.0565101712518</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
@@ -905,13 +907,13 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>132.1886960007446</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
@@ -1054,7 +1056,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
@@ -1066,13 +1068,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,16 +1104,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>74.0225566247916</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>45.44275720140884</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1136,19 +1138,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>256.3586958668891</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>273.2055738917107</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
@@ -1294,13 +1296,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -1309,7 +1311,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>22.01533560335561</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1373,16 +1375,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>310.7820548304733</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -1427,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>199.5393369165936</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1525,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.427271746383433</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1610,19 +1612,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>43.46105303284243</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1664,16 +1666,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>210.7215862704734</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1771,19 +1773,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>130.0400898484501</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1895,7 +1897,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458144</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
         <v>255.7713603095518</v>
@@ -1910,7 +1912,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446598</v>
       </c>
     </row>
     <row r="18">
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -2014,10 +2016,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>85.60638373248217</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>146.3034971231914</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2096,10 +2098,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2239,7 +2241,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>94.8193742194649</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
@@ -2251,13 +2253,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>11.12043047005107</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>168.9733955350583</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>104.9037564455521</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2722,16 +2724,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -2770,13 +2772,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>114.0229165455005</v>
       </c>
       <c r="X28" t="n">
-        <v>3.259130393772605</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2950,7 +2952,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.1055716303381</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>30.92694568716851</v>
       </c>
     </row>
     <row r="32">
@@ -3184,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="E34" t="n">
-        <v>20.81118880754545</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3278,7 +3280,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
         <v>294.8896947407055</v>
@@ -3424,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -3433,13 +3435,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -3475,22 +3477,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>129.6574594237406</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>44.58691302725981</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3520,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
         <v>34.5479025439635</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
@@ -3667,19 +3669,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,22 +3711,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>104.2415324838717</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>218.0080577057878</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3740,22 +3742,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>16.31081134214432</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>59.26736087793736</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -3910,13 +3912,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,19 +3951,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>218.7757544134943</v>
+        <v>255.7189983907469</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -3992,7 +3994,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>197.1025577403857</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>57.55984006426074</v>
       </c>
     </row>
     <row r="45">
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
@@ -4147,10 +4149,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>226.5878864637942</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>108.9235766515633</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1386.898216322497</v>
+        <v>883.6383251666246</v>
       </c>
       <c r="C2" t="n">
-        <v>1364.037890376201</v>
+        <v>511.1098178163286</v>
       </c>
       <c r="D2" t="n">
-        <v>940.7452695612013</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E2" t="n">
-        <v>514.7683297090589</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F2" t="n">
-        <v>89.64414789845907</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G2" t="n">
-        <v>89.34548952831176</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H2" t="n">
-        <v>89.34548952831176</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I2" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K2" t="n">
-        <v>728.2502693850971</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L2" t="n">
-        <v>728.2502693850971</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M2" t="n">
-        <v>728.2502693850971</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N2" t="n">
-        <v>1402.051920498411</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O2" t="n">
-        <v>2075.853571611725</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P2" t="n">
-        <v>2148.789099203062</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q2" t="n">
-        <v>2604.874578707245</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2722.430913589148</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T2" t="n">
-        <v>2501.505342633781</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U2" t="n">
-        <v>2501.505342633781</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V2" t="n">
-        <v>2501.505342633781</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W2" t="n">
-        <v>2105.113992934128</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X2" t="n">
-        <v>1693.393994101875</v>
+        <v>1708.823959503264</v>
       </c>
       <c r="Y2" t="n">
-        <v>1692.09712809717</v>
+        <v>1303.486689458155</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>621.5721093032382</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>504.066205820743</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>400.226247336028</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>295.5243136089652</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>201.8784832918694</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>107.8247115094734</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>54.44861827178296</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>54.44861827178296</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K3" t="n">
-        <v>54.44861827178296</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L3" t="n">
-        <v>433.5136365409612</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="M3" t="n">
-        <v>1107.315287654275</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="N3" t="n">
-        <v>1781.11693876759</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="O3" t="n">
-        <v>1781.11693876759</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P3" t="n">
-        <v>1781.11693876759</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q3" t="n">
-        <v>1781.11693876759</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>1781.812001413547</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>1639.932065711226</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>1455.163869630862</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>1250.190730770128</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1053.669353603346</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>890.1920073700086</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.499118723301</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1057.597260506806</v>
+        <v>789.4498147466326</v>
       </c>
       <c r="C4" t="n">
-        <v>885.6246973857217</v>
+        <v>789.4498147466326</v>
       </c>
       <c r="D4" t="n">
-        <v>722.3079245124924</v>
+        <v>626.1330418734033</v>
       </c>
       <c r="E4" t="n">
-        <v>556.0997186653459</v>
+        <v>459.9248360262568</v>
       </c>
       <c r="F4" t="n">
-        <v>384.2379444399063</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G4" t="n">
-        <v>217.9809747341384</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H4" t="n">
-        <v>74.18470624229283</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>111.939946495941</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K4" t="n">
-        <v>338.4675477017781</v>
+        <v>328.5171544792431</v>
       </c>
       <c r="L4" t="n">
-        <v>693.1568689961989</v>
+        <v>683.2064757736639</v>
       </c>
       <c r="M4" t="n">
-        <v>1084.34266396645</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
-        <v>1461.834174842485</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1817.262303522249</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>2107.86151544415</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T4" t="n">
-        <v>1991.522297910811</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U4" t="n">
-        <v>1991.522297910811</v>
+        <v>1701.387456188581</v>
       </c>
       <c r="V4" t="n">
-        <v>1991.522297910811</v>
+        <v>1419.67598879661</v>
       </c>
       <c r="W4" t="n">
-        <v>1716.669894083324</v>
+        <v>1144.823584969123</v>
       </c>
       <c r="X4" t="n">
-        <v>1474.105997529129</v>
+        <v>902.2596884149276</v>
       </c>
       <c r="Y4" t="n">
-        <v>1247.763229218871</v>
+        <v>789.4498147466326</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1352.001345065968</v>
+        <v>427.7981182481856</v>
       </c>
       <c r="C5" t="n">
-        <v>925.1006150792682</v>
+        <v>404.9377923018898</v>
       </c>
       <c r="D5" t="n">
-        <v>905.8483983046725</v>
+        <v>385.6855755272941</v>
       </c>
       <c r="E5" t="n">
-        <v>883.9118624929341</v>
+        <v>363.7490397155557</v>
       </c>
       <c r="F5" t="n">
-        <v>458.7876806823343</v>
+        <v>342.66526194536</v>
       </c>
       <c r="G5" t="n">
-        <v>54.44861827178296</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H5" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>54.44861827178296</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>728.2502693850971</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>728.2502693850971</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>728.2502693850971</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
-        <v>1257.271276480617</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O5" t="n">
-        <v>1931.072927593931</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P5" t="n">
-        <v>2604.874578707245</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>2604.874578707245</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>2722.430913589148</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V5" t="n">
-        <v>2722.430913589148</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="W5" t="n">
-        <v>2588.906978234861</v>
+        <v>1570.164993359136</v>
       </c>
       <c r="X5" t="n">
-        <v>2177.186979402608</v>
+        <v>1158.444994526883</v>
       </c>
       <c r="Y5" t="n">
-        <v>1771.849709357498</v>
+        <v>753.1077244817733</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>621.5721093032382</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>504.066205820743</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>400.226247336028</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>295.5243136089652</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>201.8784832918694</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>107.8247115094734</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>61.8952612336948</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>61.8952612336948</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>652.3801878020344</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L6" t="n">
-        <v>1326.181838915349</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M6" t="n">
-        <v>1326.181838915349</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="N6" t="n">
-        <v>1326.181838915349</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="O6" t="n">
-        <v>1326.181838915349</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P6" t="n">
-        <v>1863.136248852293</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1781.812001413547</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1639.932065711226</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1455.163869630862</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1250.190730770128</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1053.669353603346</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>890.1920073700086</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>750.499118723301</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>655.6039394773223</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C7" t="n">
-        <v>655.6039394773223</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D7" t="n">
-        <v>492.287166604093</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E7" t="n">
-        <v>326.0789607569466</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F7" t="n">
-        <v>154.217186531507</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G7" t="n">
-        <v>154.217186531507</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H7" t="n">
-        <v>154.217186531507</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>111.939946495941</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>338.4675477017781</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>693.1568689961989</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1084.34266396645</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1461.834174842485</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1817.262303522249</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2107.86151544415</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2187.823032372085</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2113.052773155123</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>1869.713425381023</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="U7" t="n">
-        <v>1589.528976881328</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="V7" t="n">
-        <v>1589.528976881328</v>
+        <v>1961.835816717766</v>
       </c>
       <c r="W7" t="n">
-        <v>1314.676573053841</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="X7" t="n">
-        <v>1072.112676499646</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y7" t="n">
-        <v>845.7699081893879</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1485.525280420256</v>
+        <v>2468.807958034366</v>
       </c>
       <c r="C8" t="n">
-        <v>1058.624550433556</v>
+        <v>2041.907228047667</v>
       </c>
       <c r="D8" t="n">
-        <v>799.6763727902336</v>
+        <v>1618.614607232667</v>
       </c>
       <c r="E8" t="n">
-        <v>777.7398369784952</v>
+        <v>1192.637667380524</v>
       </c>
       <c r="F8" t="n">
-        <v>756.6560592082994</v>
+        <v>767.5134855699246</v>
       </c>
       <c r="G8" t="n">
-        <v>352.3169967977481</v>
+        <v>363.1744231593732</v>
       </c>
       <c r="H8" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I8" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J8" t="n">
-        <v>54.44861827178296</v>
+        <v>449.8126558230255</v>
       </c>
       <c r="K8" t="n">
-        <v>728.2502693850971</v>
+        <v>1165.320963798525</v>
       </c>
       <c r="L8" t="n">
-        <v>728.2502693850971</v>
+        <v>2094.946011417801</v>
       </c>
       <c r="M8" t="n">
-        <v>728.2502693850971</v>
+        <v>2233.394106611674</v>
       </c>
       <c r="N8" t="n">
-        <v>1402.051920498411</v>
+        <v>2233.394106611674</v>
       </c>
       <c r="O8" t="n">
-        <v>1592.543782971651</v>
+        <v>3078.538756762487</v>
       </c>
       <c r="P8" t="n">
-        <v>2266.345434084965</v>
+        <v>3786.818035920414</v>
       </c>
       <c r="Q8" t="n">
-        <v>2722.430913589148</v>
+        <v>4242.903515424598</v>
       </c>
       <c r="R8" t="n">
-        <v>2722.430913589148</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="S8" t="n">
-        <v>2722.430913589148</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="T8" t="n">
-        <v>2722.430913589148</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="U8" t="n">
-        <v>2722.430913589148</v>
+        <v>4102.104940902912</v>
       </c>
       <c r="V8" t="n">
-        <v>2722.430913589148</v>
+        <v>4102.104940902912</v>
       </c>
       <c r="W8" t="n">
-        <v>2722.430913589148</v>
+        <v>3705.713591203259</v>
       </c>
       <c r="X8" t="n">
-        <v>2310.710914756895</v>
+        <v>3293.993592371006</v>
       </c>
       <c r="Y8" t="n">
-        <v>1905.373644711786</v>
+        <v>2888.656322325897</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>621.5721093032382</v>
+        <v>654.3326880375852</v>
       </c>
       <c r="C9" t="n">
-        <v>504.066205820743</v>
+        <v>536.8267845550899</v>
       </c>
       <c r="D9" t="n">
-        <v>400.226247336028</v>
+        <v>432.986826070375</v>
       </c>
       <c r="E9" t="n">
-        <v>295.5243136089652</v>
+        <v>328.2848923433122</v>
       </c>
       <c r="F9" t="n">
-        <v>201.8784832918694</v>
+        <v>234.6390620262164</v>
       </c>
       <c r="G9" t="n">
-        <v>107.8247115094734</v>
+        <v>140.5852902438204</v>
       </c>
       <c r="H9" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I9" t="n">
-        <v>54.44861827178296</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="J9" t="n">
-        <v>54.44861827178296</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="K9" t="n">
-        <v>54.44861827178296</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="L9" t="n">
-        <v>728.2502693850971</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="M9" t="n">
-        <v>1107.315287654275</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="N9" t="n">
-        <v>1781.11693876759</v>
+        <v>924.3962394904649</v>
       </c>
       <c r="O9" t="n">
-        <v>1781.11693876759</v>
+        <v>1813.877517501937</v>
       </c>
       <c r="P9" t="n">
-        <v>1781.11693876759</v>
+        <v>1813.877517501937</v>
       </c>
       <c r="Q9" t="n">
-        <v>1781.11693876759</v>
+        <v>1813.877517501937</v>
       </c>
       <c r="R9" t="n">
-        <v>1863.136248852293</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="S9" t="n">
-        <v>1781.812001413547</v>
+        <v>1814.572580147894</v>
       </c>
       <c r="T9" t="n">
-        <v>1639.932065711226</v>
+        <v>1672.692644445573</v>
       </c>
       <c r="U9" t="n">
-        <v>1455.163869630862</v>
+        <v>1487.924448365209</v>
       </c>
       <c r="V9" t="n">
-        <v>1250.190730770128</v>
+        <v>1282.951309504475</v>
       </c>
       <c r="W9" t="n">
-        <v>1053.669353603346</v>
+        <v>1086.429932337693</v>
       </c>
       <c r="X9" t="n">
-        <v>890.1920073700086</v>
+        <v>922.9525861043555</v>
       </c>
       <c r="Y9" t="n">
-        <v>750.499118723301</v>
+        <v>783.2596974576479</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>558.7121323211427</v>
+        <v>1170.390319530367</v>
       </c>
       <c r="C10" t="n">
-        <v>386.7395692000587</v>
+        <v>998.4177564092828</v>
       </c>
       <c r="D10" t="n">
-        <v>386.7395692000587</v>
+        <v>835.1009835360535</v>
       </c>
       <c r="E10" t="n">
-        <v>386.7395692000587</v>
+        <v>668.892777688907</v>
       </c>
       <c r="F10" t="n">
-        <v>386.7395692000587</v>
+        <v>497.0310034634675</v>
       </c>
       <c r="G10" t="n">
-        <v>220.4825994942908</v>
+        <v>330.7740337576996</v>
       </c>
       <c r="H10" t="n">
-        <v>76.6863310024452</v>
+        <v>186.977765265854</v>
       </c>
       <c r="I10" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J10" t="n">
-        <v>111.939946495941</v>
+        <v>144.700525230288</v>
       </c>
       <c r="K10" t="n">
-        <v>338.4675477017781</v>
+        <v>371.2281264361252</v>
       </c>
       <c r="L10" t="n">
-        <v>693.1568689961989</v>
+        <v>725.917447730546</v>
       </c>
       <c r="M10" t="n">
-        <v>1084.34266396645</v>
+        <v>1117.103242700797</v>
       </c>
       <c r="N10" t="n">
-        <v>1461.834174842485</v>
+        <v>1494.594753576833</v>
       </c>
       <c r="O10" t="n">
-        <v>1817.262303522249</v>
+        <v>1850.022882256595</v>
       </c>
       <c r="P10" t="n">
-        <v>2107.86151544415</v>
+        <v>2140.622094178496</v>
       </c>
       <c r="Q10" t="n">
-        <v>2234.861645684911</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="R10" t="n">
-        <v>2187.823032372085</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="S10" t="n">
-        <v>2017.687984891219</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="T10" t="n">
-        <v>1774.348637117119</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="U10" t="n">
-        <v>1774.348637117119</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="V10" t="n">
-        <v>1492.637169725148</v>
+        <v>2104.315356934372</v>
       </c>
       <c r="W10" t="n">
-        <v>1217.784765897661</v>
+        <v>1829.462953106885</v>
       </c>
       <c r="X10" t="n">
-        <v>975.2208693434662</v>
+        <v>1586.89905655269</v>
       </c>
       <c r="Y10" t="n">
-        <v>748.8781010332083</v>
+        <v>1360.556288242432</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1128.035865546505</v>
+        <v>2525.607981663617</v>
       </c>
       <c r="C11" t="n">
-        <v>701.1351355598056</v>
+        <v>2098.707251676917</v>
       </c>
       <c r="D11" t="n">
-        <v>701.1351355598056</v>
+        <v>1675.414630861917</v>
       </c>
       <c r="E11" t="n">
-        <v>701.1351355598056</v>
+        <v>1249.437691009775</v>
       </c>
       <c r="F11" t="n">
-        <v>387.2138680542769</v>
+        <v>824.3135091991753</v>
       </c>
       <c r="G11" t="n">
-        <v>387.2138680542769</v>
+        <v>419.9744467886239</v>
       </c>
       <c r="H11" t="n">
-        <v>89.34548952831176</v>
+        <v>122.1060682626588</v>
       </c>
       <c r="I11" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J11" t="n">
-        <v>54.44861827178296</v>
+        <v>449.8126558230255</v>
       </c>
       <c r="K11" t="n">
-        <v>728.2502693850971</v>
+        <v>994.2121632772809</v>
       </c>
       <c r="L11" t="n">
-        <v>1402.051920498411</v>
+        <v>1923.837210896558</v>
       </c>
       <c r="M11" t="n">
-        <v>2048.629262475834</v>
+        <v>2928.123312315616</v>
       </c>
       <c r="N11" t="n">
-        <v>2048.629262475834</v>
+        <v>3904.374370802317</v>
       </c>
       <c r="O11" t="n">
-        <v>2722.430913589148</v>
+        <v>3904.374370802317</v>
       </c>
       <c r="P11" t="n">
-        <v>2722.430913589148</v>
+        <v>3904.374370802317</v>
       </c>
       <c r="Q11" t="n">
-        <v>2722.430913589148</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="R11" t="n">
-        <v>2722.430913589148</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="S11" t="n">
-        <v>2722.430913589148</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="T11" t="n">
-        <v>2722.430913589148</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="U11" t="n">
-        <v>2722.430913589148</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="V11" t="n">
-        <v>2364.941498715398</v>
+        <v>4158.904964532163</v>
       </c>
       <c r="W11" t="n">
-        <v>2364.941498715398</v>
+        <v>3762.51361483251</v>
       </c>
       <c r="X11" t="n">
-        <v>1953.221499883145</v>
+        <v>3350.793616000257</v>
       </c>
       <c r="Y11" t="n">
-        <v>1547.884229838035</v>
+        <v>2945.456345955147</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>621.5721093032382</v>
+        <v>654.3326880375852</v>
       </c>
       <c r="C12" t="n">
-        <v>504.066205820743</v>
+        <v>536.8267845550899</v>
       </c>
       <c r="D12" t="n">
-        <v>400.226247336028</v>
+        <v>432.986826070375</v>
       </c>
       <c r="E12" t="n">
-        <v>295.5243136089652</v>
+        <v>328.2848923433122</v>
       </c>
       <c r="F12" t="n">
-        <v>201.8784832918694</v>
+        <v>234.6390620262164</v>
       </c>
       <c r="G12" t="n">
-        <v>107.8247115094734</v>
+        <v>140.5852902438204</v>
       </c>
       <c r="H12" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I12" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J12" t="n">
-        <v>326.146107551374</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K12" t="n">
-        <v>916.6310341197136</v>
+        <v>87.20919700613</v>
       </c>
       <c r="L12" t="n">
-        <v>1590.432685233028</v>
+        <v>87.20919700613</v>
       </c>
       <c r="M12" t="n">
-        <v>1590.432685233028</v>
+        <v>87.20919700613</v>
       </c>
       <c r="N12" t="n">
-        <v>1590.432685233028</v>
+        <v>1006.415549575168</v>
       </c>
       <c r="O12" t="n">
-        <v>1863.136248852293</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="P12" t="n">
-        <v>1863.136248852293</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="Q12" t="n">
-        <v>1863.136248852293</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="R12" t="n">
-        <v>1863.136248852293</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="S12" t="n">
-        <v>1781.812001413547</v>
+        <v>1814.572580147894</v>
       </c>
       <c r="T12" t="n">
-        <v>1639.932065711226</v>
+        <v>1672.692644445573</v>
       </c>
       <c r="U12" t="n">
-        <v>1455.163869630862</v>
+        <v>1487.924448365209</v>
       </c>
       <c r="V12" t="n">
-        <v>1250.190730770128</v>
+        <v>1282.951309504475</v>
       </c>
       <c r="W12" t="n">
-        <v>1053.669353603346</v>
+        <v>1086.429932337693</v>
       </c>
       <c r="X12" t="n">
-        <v>890.1920073700086</v>
+        <v>922.9525861043555</v>
       </c>
       <c r="Y12" t="n">
-        <v>750.499118723301</v>
+        <v>783.2596974576479</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>464.221660870499</v>
+        <v>1170.390319530367</v>
       </c>
       <c r="C13" t="n">
-        <v>464.221660870499</v>
+        <v>998.4177564092828</v>
       </c>
       <c r="D13" t="n">
-        <v>464.221660870499</v>
+        <v>835.1009835360535</v>
       </c>
       <c r="E13" t="n">
-        <v>298.0134550233526</v>
+        <v>668.892777688907</v>
       </c>
       <c r="F13" t="n">
-        <v>298.0134550233526</v>
+        <v>497.0310034634675</v>
       </c>
       <c r="G13" t="n">
-        <v>298.0134550233526</v>
+        <v>330.7740337576996</v>
       </c>
       <c r="H13" t="n">
-        <v>154.217186531507</v>
+        <v>186.977765265854</v>
       </c>
       <c r="I13" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J13" t="n">
-        <v>111.939946495941</v>
+        <v>144.700525230288</v>
       </c>
       <c r="K13" t="n">
-        <v>338.4675477017781</v>
+        <v>371.2281264361252</v>
       </c>
       <c r="L13" t="n">
-        <v>693.1568689961989</v>
+        <v>725.917447730546</v>
       </c>
       <c r="M13" t="n">
-        <v>1084.34266396645</v>
+        <v>1117.103242700797</v>
       </c>
       <c r="N13" t="n">
-        <v>1461.834174842485</v>
+        <v>1494.594753576833</v>
       </c>
       <c r="O13" t="n">
-        <v>1817.262303522249</v>
+        <v>1850.022882256595</v>
       </c>
       <c r="P13" t="n">
-        <v>2107.86151544415</v>
+        <v>2140.622094178496</v>
       </c>
       <c r="Q13" t="n">
-        <v>2234.861645684911</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="R13" t="n">
-        <v>2187.823032372085</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="S13" t="n">
-        <v>2017.687984891219</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="T13" t="n">
-        <v>1774.348637117119</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="U13" t="n">
-        <v>1494.164188617424</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="V13" t="n">
-        <v>1212.452721225452</v>
+        <v>2104.315356934372</v>
       </c>
       <c r="W13" t="n">
-        <v>937.6003173979655</v>
+        <v>1829.462953106885</v>
       </c>
       <c r="X13" t="n">
-        <v>695.0364208437705</v>
+        <v>1586.89905655269</v>
       </c>
       <c r="Y13" t="n">
-        <v>468.6936525335126</v>
+        <v>1360.556288242432</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1330.618908925625</v>
+        <v>2111.318543160616</v>
       </c>
       <c r="C14" t="n">
-        <v>903.7181789389251</v>
+        <v>1684.417813173916</v>
       </c>
       <c r="D14" t="n">
-        <v>480.4255581239254</v>
+        <v>1640.517759605389</v>
       </c>
       <c r="E14" t="n">
-        <v>54.44861827178296</v>
+        <v>1214.540819753246</v>
       </c>
       <c r="F14" t="n">
-        <v>54.44861827178296</v>
+        <v>789.4166379426465</v>
       </c>
       <c r="G14" t="n">
-        <v>54.44861827178296</v>
+        <v>385.0775755320952</v>
       </c>
       <c r="H14" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I14" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J14" t="n">
-        <v>417.0520770886785</v>
+        <v>449.8126558230255</v>
       </c>
       <c r="K14" t="n">
-        <v>1090.853728201993</v>
+        <v>1165.320963798525</v>
       </c>
       <c r="L14" t="n">
-        <v>1764.655379315307</v>
+        <v>2094.946011417801</v>
       </c>
       <c r="M14" t="n">
-        <v>2048.629262475834</v>
+        <v>3099.232112836859</v>
       </c>
       <c r="N14" t="n">
-        <v>2722.430913589148</v>
+        <v>4075.48317132356</v>
       </c>
       <c r="O14" t="n">
-        <v>2722.430913589148</v>
+        <v>4242.903515424598</v>
       </c>
       <c r="P14" t="n">
-        <v>2722.430913589148</v>
+        <v>4242.903515424598</v>
       </c>
       <c r="Q14" t="n">
-        <v>2722.430913589148</v>
+        <v>4242.903515424598</v>
       </c>
       <c r="R14" t="n">
-        <v>2722.430913589148</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="S14" t="n">
-        <v>2618.063619462288</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="T14" t="n">
-        <v>2618.063619462288</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="U14" t="n">
-        <v>2359.7087100587</v>
+        <v>4102.104940902912</v>
       </c>
       <c r="V14" t="n">
-        <v>2359.7087100587</v>
+        <v>3744.615526029162</v>
       </c>
       <c r="W14" t="n">
-        <v>1963.317360359047</v>
+        <v>3348.224176329509</v>
       </c>
       <c r="X14" t="n">
-        <v>1963.317360359047</v>
+        <v>2936.504177497256</v>
       </c>
       <c r="Y14" t="n">
-        <v>1750.467273217155</v>
+        <v>2531.166907452146</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>621.5721093032382</v>
+        <v>654.3326880375852</v>
       </c>
       <c r="C15" t="n">
-        <v>504.066205820743</v>
+        <v>536.8267845550899</v>
       </c>
       <c r="D15" t="n">
-        <v>400.226247336028</v>
+        <v>432.986826070375</v>
       </c>
       <c r="E15" t="n">
-        <v>295.5243136089652</v>
+        <v>328.2848923433122</v>
       </c>
       <c r="F15" t="n">
-        <v>201.8784832918694</v>
+        <v>234.6390620262164</v>
       </c>
       <c r="G15" t="n">
-        <v>107.8247115094734</v>
+        <v>140.5852902438204</v>
       </c>
       <c r="H15" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I15" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J15" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K15" t="n">
-        <v>54.44861827178296</v>
+        <v>677.6941235744696</v>
       </c>
       <c r="L15" t="n">
-        <v>728.2502693850971</v>
+        <v>677.6941235744696</v>
       </c>
       <c r="M15" t="n">
-        <v>728.2502693850971</v>
+        <v>1733.680661550515</v>
       </c>
       <c r="N15" t="n">
-        <v>1402.051920498411</v>
+        <v>1733.680661550515</v>
       </c>
       <c r="O15" t="n">
-        <v>1402.051920498411</v>
+        <v>1733.680661550515</v>
       </c>
       <c r="P15" t="n">
-        <v>1781.11693876759</v>
+        <v>1813.877517501937</v>
       </c>
       <c r="Q15" t="n">
-        <v>1781.11693876759</v>
+        <v>1813.877517501937</v>
       </c>
       <c r="R15" t="n">
-        <v>1863.136248852293</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="S15" t="n">
-        <v>1781.812001413547</v>
+        <v>1814.572580147894</v>
       </c>
       <c r="T15" t="n">
-        <v>1639.932065711226</v>
+        <v>1672.692644445573</v>
       </c>
       <c r="U15" t="n">
-        <v>1455.163869630862</v>
+        <v>1487.924448365209</v>
       </c>
       <c r="V15" t="n">
-        <v>1250.190730770128</v>
+        <v>1282.951309504475</v>
       </c>
       <c r="W15" t="n">
-        <v>1053.669353603346</v>
+        <v>1086.429932337693</v>
       </c>
       <c r="X15" t="n">
-        <v>890.1920073700086</v>
+        <v>922.9525861043555</v>
       </c>
       <c r="Y15" t="n">
-        <v>750.499118723301</v>
+        <v>783.2596974576479</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>521.0915803756418</v>
+        <v>1170.390319530367</v>
       </c>
       <c r="C16" t="n">
-        <v>349.1190172545578</v>
+        <v>998.4177564092828</v>
       </c>
       <c r="D16" t="n">
-        <v>185.8022443813285</v>
+        <v>835.1009835360535</v>
       </c>
       <c r="E16" t="n">
-        <v>185.8022443813285</v>
+        <v>668.892777688907</v>
       </c>
       <c r="F16" t="n">
-        <v>54.44861827178296</v>
+        <v>497.0310034634675</v>
       </c>
       <c r="G16" t="n">
-        <v>54.44861827178296</v>
+        <v>330.7740337576996</v>
       </c>
       <c r="H16" t="n">
-        <v>54.44861827178296</v>
+        <v>186.977765265854</v>
       </c>
       <c r="I16" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J16" t="n">
-        <v>111.939946495941</v>
+        <v>144.700525230288</v>
       </c>
       <c r="K16" t="n">
-        <v>338.4675477017781</v>
+        <v>371.2281264361252</v>
       </c>
       <c r="L16" t="n">
-        <v>693.1568689961989</v>
+        <v>725.917447730546</v>
       </c>
       <c r="M16" t="n">
-        <v>1084.34266396645</v>
+        <v>1117.103242700797</v>
       </c>
       <c r="N16" t="n">
-        <v>1461.834174842485</v>
+        <v>1494.594753576833</v>
       </c>
       <c r="O16" t="n">
-        <v>1817.262303522249</v>
+        <v>1850.022882256595</v>
       </c>
       <c r="P16" t="n">
-        <v>2107.86151544415</v>
+        <v>2140.622094178496</v>
       </c>
       <c r="Q16" t="n">
-        <v>2234.861645684911</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="R16" t="n">
-        <v>2187.823032372085</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="S16" t="n">
-        <v>2017.687984891219</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="T16" t="n">
-        <v>1774.348637117119</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="U16" t="n">
-        <v>1494.164188617424</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="V16" t="n">
-        <v>1212.452721225452</v>
+        <v>2104.315356934372</v>
       </c>
       <c r="W16" t="n">
-        <v>937.6003173979655</v>
+        <v>1829.462953106885</v>
       </c>
       <c r="X16" t="n">
-        <v>937.6003173979655</v>
+        <v>1586.89905655269</v>
       </c>
       <c r="Y16" t="n">
-        <v>711.2575490877075</v>
+        <v>1360.556288242432</v>
       </c>
     </row>
     <row r="17">
@@ -5513,28 +5515,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5543,19 +5545,19 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>4025.820723818557</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N18" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4017.903765402536</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="C19" t="n">
-        <v>3845.931202281452</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="D19" t="n">
-        <v>3682.614429408222</v>
+        <v>626.6123564174136</v>
       </c>
       <c r="E19" t="n">
-        <v>3516.406223561076</v>
+        <v>460.4041505702671</v>
       </c>
       <c r="F19" t="n">
-        <v>3344.544449335636</v>
+        <v>288.5423763448275</v>
       </c>
       <c r="G19" t="n">
-        <v>3178.287479629868</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H19" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>5068.0970569786</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>4824.7577092045</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>4676.976398979054</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>4676.976398979054</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W19" t="n">
-        <v>4676.976398979054</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X19" t="n">
-        <v>4434.41250242486</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y19" t="n">
-        <v>4208.069734114601</v>
+        <v>789.9291292906429</v>
       </c>
     </row>
     <row r="20">
@@ -5744,28 +5746,28 @@
         <v>435.0679631883233</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>651.5495334576516</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1581.174581076928</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2585.460682495986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>3561.711740982687</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O20" t="n">
-        <v>4406.8563911335</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P20" t="n">
         <v>5115.135670291427</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C21" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D21" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E21" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F21" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>3306.448039710919</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M21" t="n">
-        <v>4362.434577686964</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N21" t="n">
-        <v>5115.135670291427</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="O21" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.582799500206</v>
       </c>
       <c r="P21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S21" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T21" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U21" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V21" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W21" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X21" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y21" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>775.6620294727279</v>
+        <v>1109.288418485209</v>
       </c>
       <c r="C22" t="n">
-        <v>603.6894663516439</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D22" t="n">
-        <v>440.3726934784146</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E22" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F22" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2271.4829827684</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2271.4829827684</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>2271.4829827684</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>1991.298534268705</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>1709.587066876733</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W22" t="n">
-        <v>1434.734663049246</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="X22" t="n">
-        <v>1192.170766495052</v>
+        <v>1299.454387197274</v>
       </c>
       <c r="Y22" t="n">
-        <v>965.8279981847936</v>
+        <v>1299.454387197274</v>
       </c>
     </row>
     <row r="23">
@@ -5990,25 +5992,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L23" t="n">
-        <v>1463.618246195026</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M23" t="n">
-        <v>2467.904347614084</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N23" t="n">
-        <v>3444.155406100785</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O23" t="n">
-        <v>4289.300056251597</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6072,16 +6074,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P24" t="n">
         <v>1910.990343986338</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>345.8675501573982</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C25" t="n">
-        <v>345.8675501573982</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D25" t="n">
-        <v>345.8675501573982</v>
+        <v>208.2661037548711</v>
       </c>
       <c r="E25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X25" t="n">
-        <v>742.8905159778161</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y25" t="n">
-        <v>516.5477476675582</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="26">
@@ -6239,7 +6241,7 @@
         <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>4406.8563911335</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
         <v>5115.135670291427</v>
@@ -6312,10 +6314,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3027134058285</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N27" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
         <v>1910.990343986338</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>847.365091998858</v>
+        <v>775.6620294727279</v>
       </c>
       <c r="C28" t="n">
-        <v>675.392528877774</v>
+        <v>603.6894663516439</v>
       </c>
       <c r="D28" t="n">
-        <v>512.0757560045447</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E28" t="n">
-        <v>345.8675501573982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V28" t="n">
-        <v>1542.018283751469</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W28" t="n">
-        <v>1267.165879923982</v>
+        <v>1192.170766495052</v>
       </c>
       <c r="X28" t="n">
-        <v>1263.873829021182</v>
+        <v>1192.170766495052</v>
       </c>
       <c r="Y28" t="n">
-        <v>1037.531060710924</v>
+        <v>965.8279981847936</v>
       </c>
     </row>
     <row r="29">
@@ -6467,22 +6469,22 @@
         <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>1463.618246195026</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>2467.904347614084</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>3444.155406100785</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>4289.300056251597</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6549,7 +6551,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N30" t="n">
         <v>1910.990343986338</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4017.903765402536</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="C31" t="n">
-        <v>3845.931202281452</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D31" t="n">
-        <v>3682.614429408222</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E31" t="n">
-        <v>3516.406223561076</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F31" t="n">
-        <v>3344.544449335636</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G31" t="n">
-        <v>3178.287479629868</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H31" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>4951.828802806542</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T31" t="n">
-        <v>4951.828802806542</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U31" t="n">
-        <v>4951.828802806542</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V31" t="n">
-        <v>4951.828802806542</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W31" t="n">
-        <v>4676.976398979054</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="X31" t="n">
-        <v>4434.41250242486</v>
+        <v>1234.916580598995</v>
       </c>
       <c r="Y31" t="n">
-        <v>4208.069734114601</v>
+        <v>1203.677241521047</v>
       </c>
     </row>
     <row r="32">
@@ -6698,25 +6700,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>2110.0395278175</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M32" t="n">
-        <v>3114.325629236558</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N32" t="n">
-        <v>3114.325629236558</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O32" t="n">
-        <v>3950.770911629316</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P32" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
         <v>5115.135670291427</v>
@@ -6774,22 +6776,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="M33" t="n">
-        <v>1021.509065974867</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N33" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O33" t="n">
         <v>1910.990343986338</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>796.7321961672538</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C34" t="n">
-        <v>624.7596330461698</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D34" t="n">
-        <v>461.4428601729405</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E34" t="n">
-        <v>440.421457337036</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F34" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
         <v>102.3027134058285</v>
@@ -6889,19 +6891,19 @@
         <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>1822.202732251165</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>1540.491264859194</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W34" t="n">
-        <v>1265.638861031707</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X34" t="n">
-        <v>1023.074964477512</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y34" t="n">
-        <v>796.7321961672538</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6938,25 +6940,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>786.1869982294937</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>1715.81204584877</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2720.098147267829</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>3696.34920575453</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O35" t="n">
-        <v>4541.493855905342</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -6971,16 +6973,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="36">
@@ -7023,10 +7025,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>1021.509065974867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N36" t="n">
-        <v>1021.509065974867</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O36" t="n">
         <v>1910.990343986338</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>3530.273159564166</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808982</v>
+        <v>3530.273159564166</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357522</v>
+        <v>3366.956386690937</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>3200.748180843791</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>3200.748180843791</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I37" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L37" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M37" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N37" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O37" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P37" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q37" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T37" t="n">
-        <v>2065.542080025265</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U37" t="n">
-        <v>1785.357631525569</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V37" t="n">
-        <v>1785.357631525569</v>
+        <v>4092.726745831969</v>
       </c>
       <c r="W37" t="n">
-        <v>1654.390500794518</v>
+        <v>3817.874342004482</v>
       </c>
       <c r="X37" t="n">
-        <v>1411.826604240323</v>
+        <v>3575.310445450287</v>
       </c>
       <c r="Y37" t="n">
-        <v>1185.483835930065</v>
+        <v>3530.273159564166</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7175,25 +7177,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>102.3027134058285</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L38" t="n">
-        <v>1007.532766690843</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.818868109901</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7208,16 +7210,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3413.808247364458</v>
+        <v>4017.903765402536</v>
       </c>
       <c r="C40" t="n">
-        <v>3241.835684243374</v>
+        <v>3845.931202281452</v>
       </c>
       <c r="D40" t="n">
-        <v>3078.518911370144</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="E40" t="n">
-        <v>3078.518911370144</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="F40" t="n">
-        <v>3078.518911370144</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G40" t="n">
-        <v>3078.518911370144</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H40" t="n">
-        <v>2934.722642878299</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I40" t="n">
         <v>2934.722642878299</v>
@@ -7357,25 +7359,25 @@
         <v>5068.0970569786</v>
       </c>
       <c r="S40" t="n">
-        <v>4962.802579722164</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T40" t="n">
-        <v>4719.463231948064</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U40" t="n">
-        <v>4439.278783448369</v>
+        <v>4434.41250242486</v>
       </c>
       <c r="V40" t="n">
-        <v>4157.567316056397</v>
+        <v>4434.41250242486</v>
       </c>
       <c r="W40" t="n">
-        <v>3882.714912228911</v>
+        <v>4434.41250242486</v>
       </c>
       <c r="X40" t="n">
-        <v>3640.151015674716</v>
+        <v>4434.41250242486</v>
       </c>
       <c r="Y40" t="n">
-        <v>3413.808247364458</v>
+        <v>4208.069734114601</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1182.632999060442</v>
+        <v>1786.02567807839</v>
       </c>
       <c r="C41" t="n">
-        <v>1182.632999060442</v>
+        <v>1359.124948091691</v>
       </c>
       <c r="D41" t="n">
-        <v>1182.632999060442</v>
+        <v>1342.649381079424</v>
       </c>
       <c r="E41" t="n">
-        <v>756.6560592082994</v>
+        <v>916.6724412272812</v>
       </c>
       <c r="F41" t="n">
-        <v>756.6560592082994</v>
+        <v>491.5482594166814</v>
       </c>
       <c r="G41" t="n">
-        <v>352.3169967977481</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H41" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I41" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J41" t="n">
-        <v>54.44861827178296</v>
+        <v>449.8126558230255</v>
       </c>
       <c r="K41" t="n">
-        <v>54.44861827178296</v>
+        <v>1165.320963798525</v>
       </c>
       <c r="L41" t="n">
-        <v>728.2502693850971</v>
+        <v>2094.946011417801</v>
       </c>
       <c r="M41" t="n">
-        <v>1402.051920498411</v>
+        <v>3099.232112836859</v>
       </c>
       <c r="N41" t="n">
-        <v>2048.629262475834</v>
+        <v>4075.48317132356</v>
       </c>
       <c r="O41" t="n">
-        <v>2048.629262475834</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="P41" t="n">
-        <v>2722.430913589148</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="Q41" t="n">
-        <v>2722.430913589148</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="R41" t="n">
-        <v>2722.430913589148</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="S41" t="n">
-        <v>2722.430913589148</v>
+        <v>4256.09255617964</v>
       </c>
       <c r="T41" t="n">
-        <v>2722.430913589148</v>
+        <v>4035.166985224274</v>
       </c>
       <c r="U41" t="n">
-        <v>2464.07600418556</v>
+        <v>3776.812075820686</v>
       </c>
       <c r="V41" t="n">
-        <v>2404.209983096735</v>
+        <v>3419.322660946936</v>
       </c>
       <c r="W41" t="n">
-        <v>2007.818633397082</v>
+        <v>3022.931311247283</v>
       </c>
       <c r="X41" t="n">
-        <v>2007.818633397082</v>
+        <v>2611.21131241503</v>
       </c>
       <c r="Y41" t="n">
-        <v>1602.481363351972</v>
+        <v>2205.874042369921</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>621.5721093032382</v>
+        <v>654.3326880375852</v>
       </c>
       <c r="C42" t="n">
-        <v>504.066205820743</v>
+        <v>536.8267845550899</v>
       </c>
       <c r="D42" t="n">
-        <v>400.226247336028</v>
+        <v>432.986826070375</v>
       </c>
       <c r="E42" t="n">
-        <v>295.5243136089652</v>
+        <v>328.2848923433122</v>
       </c>
       <c r="F42" t="n">
-        <v>201.8784832918694</v>
+        <v>234.6390620262164</v>
       </c>
       <c r="G42" t="n">
-        <v>107.8247115094734</v>
+        <v>140.5852902438204</v>
       </c>
       <c r="H42" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I42" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J42" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K42" t="n">
-        <v>515.5329466256644</v>
+        <v>87.20919700613</v>
       </c>
       <c r="L42" t="n">
-        <v>1189.334597738979</v>
+        <v>87.20919700613</v>
       </c>
       <c r="M42" t="n">
-        <v>1189.334597738979</v>
+        <v>1143.195734982175</v>
       </c>
       <c r="N42" t="n">
-        <v>1189.334597738979</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="O42" t="n">
-        <v>1189.334597738979</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="P42" t="n">
-        <v>1863.136248852293</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="Q42" t="n">
-        <v>1863.136248852293</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="R42" t="n">
-        <v>1863.136248852293</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="S42" t="n">
-        <v>1781.812001413547</v>
+        <v>1814.572580147894</v>
       </c>
       <c r="T42" t="n">
-        <v>1639.932065711226</v>
+        <v>1672.692644445573</v>
       </c>
       <c r="U42" t="n">
-        <v>1455.163869630862</v>
+        <v>1487.924448365209</v>
       </c>
       <c r="V42" t="n">
-        <v>1250.190730770128</v>
+        <v>1282.951309504475</v>
       </c>
       <c r="W42" t="n">
-        <v>1053.669353603346</v>
+        <v>1086.429932337693</v>
       </c>
       <c r="X42" t="n">
-        <v>890.1920073700086</v>
+        <v>922.9525861043555</v>
       </c>
       <c r="Y42" t="n">
-        <v>750.499118723301</v>
+        <v>783.2596974576479</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1137.62974079602</v>
+        <v>760.5685130730293</v>
       </c>
       <c r="C43" t="n">
-        <v>965.6571776749358</v>
+        <v>588.5959499519453</v>
       </c>
       <c r="D43" t="n">
-        <v>802.3404048017065</v>
+        <v>425.279177078716</v>
       </c>
       <c r="E43" t="n">
-        <v>636.1321989545601</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="F43" t="n">
-        <v>464.2704247291205</v>
+        <v>87.20919700613</v>
       </c>
       <c r="G43" t="n">
-        <v>298.0134550233526</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H43" t="n">
-        <v>154.217186531507</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I43" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J43" t="n">
-        <v>111.939946495941</v>
+        <v>144.700525230288</v>
       </c>
       <c r="K43" t="n">
-        <v>338.4675477017781</v>
+        <v>371.2281264361252</v>
       </c>
       <c r="L43" t="n">
-        <v>693.1568689961989</v>
+        <v>725.917447730546</v>
       </c>
       <c r="M43" t="n">
-        <v>1084.34266396645</v>
+        <v>1117.103242700797</v>
       </c>
       <c r="N43" t="n">
-        <v>1461.834174842485</v>
+        <v>1494.594753576833</v>
       </c>
       <c r="O43" t="n">
-        <v>1817.262303522249</v>
+        <v>1850.022882256595</v>
       </c>
       <c r="P43" t="n">
-        <v>2107.86151544415</v>
+        <v>2140.622094178496</v>
       </c>
       <c r="Q43" t="n">
-        <v>2234.861645684911</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="R43" t="n">
-        <v>2187.823032372085</v>
+        <v>2220.583611106431</v>
       </c>
       <c r="S43" t="n">
-        <v>2017.687984891219</v>
+        <v>2050.448563625566</v>
       </c>
       <c r="T43" t="n">
-        <v>2017.687984891219</v>
+        <v>1807.109215851466</v>
       </c>
       <c r="U43" t="n">
-        <v>2017.687984891219</v>
+        <v>1526.92476735177</v>
       </c>
       <c r="V43" t="n">
-        <v>2017.687984891219</v>
+        <v>1245.213299959799</v>
       </c>
       <c r="W43" t="n">
-        <v>1796.702374372538</v>
+        <v>986.9112813832872</v>
       </c>
       <c r="X43" t="n">
-        <v>1554.138477818344</v>
+        <v>986.9112813832872</v>
       </c>
       <c r="Y43" t="n">
-        <v>1327.795709508086</v>
+        <v>760.5685130730293</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1508.982295012133</v>
+        <v>2490.711110407088</v>
       </c>
       <c r="C44" t="n">
-        <v>1508.982295012133</v>
+        <v>2063.810380420388</v>
       </c>
       <c r="D44" t="n">
-        <v>1508.982295012133</v>
+        <v>1640.517759605389</v>
       </c>
       <c r="E44" t="n">
-        <v>1083.00535515999</v>
+        <v>1214.540819753246</v>
       </c>
       <c r="F44" t="n">
-        <v>657.8811733493906</v>
+        <v>789.4166379426465</v>
       </c>
       <c r="G44" t="n">
-        <v>253.5421109388392</v>
+        <v>385.0775755320952</v>
       </c>
       <c r="H44" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I44" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J44" t="n">
-        <v>417.0520770886785</v>
+        <v>449.8126558230255</v>
       </c>
       <c r="K44" t="n">
-        <v>918.7421318583365</v>
+        <v>1165.320963798525</v>
       </c>
       <c r="L44" t="n">
-        <v>1592.543782971651</v>
+        <v>2094.946011417801</v>
       </c>
       <c r="M44" t="n">
-        <v>1592.543782971651</v>
+        <v>3099.232112836859</v>
       </c>
       <c r="N44" t="n">
-        <v>1592.543782971651</v>
+        <v>3904.374370802317</v>
       </c>
       <c r="O44" t="n">
-        <v>2266.345434084965</v>
+        <v>3904.374370802317</v>
       </c>
       <c r="P44" t="n">
-        <v>2266.345434084965</v>
+        <v>3904.374370802317</v>
       </c>
       <c r="Q44" t="n">
-        <v>2722.430913589148</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="R44" t="n">
-        <v>2722.430913589148</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="S44" t="n">
-        <v>2722.430913589148</v>
+        <v>4256.09255617964</v>
       </c>
       <c r="T44" t="n">
-        <v>2722.430913589148</v>
+        <v>4035.166985224274</v>
       </c>
       <c r="U44" t="n">
-        <v>2722.430913589148</v>
+        <v>3776.812075820686</v>
       </c>
       <c r="V44" t="n">
-        <v>2722.430913589148</v>
+        <v>3776.812075820686</v>
       </c>
       <c r="W44" t="n">
-        <v>2326.039563889495</v>
+        <v>3380.420726121033</v>
       </c>
       <c r="X44" t="n">
-        <v>1914.319565057242</v>
+        <v>2968.70072728878</v>
       </c>
       <c r="Y44" t="n">
-        <v>1508.982295012133</v>
+        <v>2910.559474698618</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>621.5721093032382</v>
+        <v>654.3326880375852</v>
       </c>
       <c r="C45" t="n">
-        <v>504.066205820743</v>
+        <v>536.8267845550899</v>
       </c>
       <c r="D45" t="n">
-        <v>400.226247336028</v>
+        <v>432.986826070375</v>
       </c>
       <c r="E45" t="n">
-        <v>295.5243136089652</v>
+        <v>328.2848923433122</v>
       </c>
       <c r="F45" t="n">
-        <v>201.8784832918694</v>
+        <v>234.6390620262164</v>
       </c>
       <c r="G45" t="n">
-        <v>107.8247115094734</v>
+        <v>140.5852902438204</v>
       </c>
       <c r="H45" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I45" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J45" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K45" t="n">
-        <v>644.9335448401225</v>
+        <v>677.6941235744696</v>
       </c>
       <c r="L45" t="n">
-        <v>1318.735195953437</v>
+        <v>1514.492931657376</v>
       </c>
       <c r="M45" t="n">
-        <v>1318.735195953437</v>
+        <v>1514.492931657376</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.735195953437</v>
+        <v>1514.492931657376</v>
       </c>
       <c r="O45" t="n">
-        <v>1318.735195953437</v>
+        <v>1514.492931657376</v>
       </c>
       <c r="P45" t="n">
-        <v>1398.990771989513</v>
+        <v>1514.492931657376</v>
       </c>
       <c r="Q45" t="n">
-        <v>1863.136248852293</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="R45" t="n">
-        <v>1863.136248852293</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="S45" t="n">
-        <v>1781.812001413547</v>
+        <v>1814.572580147894</v>
       </c>
       <c r="T45" t="n">
-        <v>1639.932065711226</v>
+        <v>1672.692644445573</v>
       </c>
       <c r="U45" t="n">
-        <v>1455.163869630862</v>
+        <v>1487.924448365209</v>
       </c>
       <c r="V45" t="n">
-        <v>1250.190730770128</v>
+        <v>1282.951309504475</v>
       </c>
       <c r="W45" t="n">
-        <v>1053.669353603346</v>
+        <v>1086.429932337693</v>
       </c>
       <c r="X45" t="n">
-        <v>890.1920073700086</v>
+        <v>922.9525861043555</v>
       </c>
       <c r="Y45" t="n">
-        <v>750.499118723301</v>
+        <v>783.2596974576479</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1137.62974079602</v>
+        <v>860.3370813327534</v>
       </c>
       <c r="C46" t="n">
-        <v>965.6571776749358</v>
+        <v>688.3645182116694</v>
       </c>
       <c r="D46" t="n">
-        <v>802.3404048017065</v>
+        <v>525.0477453384401</v>
       </c>
       <c r="E46" t="n">
-        <v>636.1321989545601</v>
+        <v>358.8395394912936</v>
       </c>
       <c r="F46" t="n">
-        <v>464.2704247291205</v>
+        <v>186.977765265854</v>
       </c>
       <c r="G46" t="n">
-        <v>298.0134550233526</v>
+        <v>186.977765265854</v>
       </c>
       <c r="H46" t="n">
-        <v>154.217186531507</v>
+        <v>186.977765265854</v>
       </c>
       <c r="I46" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J46" t="n">
-        <v>111.939946495941</v>
+        <v>144.700525230288</v>
       </c>
       <c r="K46" t="n">
-        <v>338.4675477017781</v>
+        <v>371.2281264361252</v>
       </c>
       <c r="L46" t="n">
-        <v>693.1568689961989</v>
+        <v>725.917447730546</v>
       </c>
       <c r="M46" t="n">
-        <v>1084.34266396645</v>
+        <v>1117.103242700797</v>
       </c>
       <c r="N46" t="n">
-        <v>1461.834174842485</v>
+        <v>1494.594753576833</v>
       </c>
       <c r="O46" t="n">
-        <v>1817.262303522249</v>
+        <v>1850.022882256595</v>
       </c>
       <c r="P46" t="n">
-        <v>2107.86151544415</v>
+        <v>2140.622094178496</v>
       </c>
       <c r="Q46" t="n">
-        <v>2234.861645684911</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="R46" t="n">
-        <v>2234.861645684911</v>
+        <v>2220.583611106431</v>
       </c>
       <c r="S46" t="n">
-        <v>2064.726598204046</v>
+        <v>2050.448563625566</v>
       </c>
       <c r="T46" t="n">
-        <v>1835.849945210315</v>
+        <v>1807.109215851466</v>
       </c>
       <c r="U46" t="n">
-        <v>1835.849945210315</v>
+        <v>1526.92476735177</v>
       </c>
       <c r="V46" t="n">
-        <v>1554.138477818344</v>
+        <v>1245.213299959799</v>
       </c>
       <c r="W46" t="n">
-        <v>1554.138477818344</v>
+        <v>970.3608961323123</v>
       </c>
       <c r="X46" t="n">
-        <v>1554.138477818344</v>
+        <v>860.3370813327534</v>
       </c>
       <c r="Y46" t="n">
-        <v>1327.795709508086</v>
+        <v>860.3370813327534</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>716.3723291920963</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>717.8873512317331</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>717.9986877533111</v>
+        <v>547.9365584046774</v>
       </c>
       <c r="P2" t="n">
-        <v>111.2476119024906</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
         <v>20.61111433333334</v>
@@ -8061,19 +8063,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>405.4090445618843</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>703.704508909615</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N3" t="n">
-        <v>701.9507566108286</v>
+        <v>89.24714193129947</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
@@ -8213,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>716.3723291920963</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
@@ -8225,19 +8227,19 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>571.6442764662843</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>717.9986877533111</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>718.1830902075183</v>
+        <v>300.5986134498011</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,31 +8291,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>703.1228151115166</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>548.7966943283913</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>564.1490330603278</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>177.2778237013238</v>
       </c>
       <c r="N8" t="n">
-        <v>717.8873512317331</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>229.806982056266</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P8" t="n">
-        <v>718.1830902075183</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>20.61111433333334</v>
@@ -8535,16 +8537,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>703.1228151115166</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>405.9907383599828</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>701.9507566108286</v>
+        <v>859.4646438927568</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>716.3723291920963</v>
+        <v>585.663093172845</v>
       </c>
       <c r="L11" t="n">
-        <v>718.9197708299099</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>690.5396891392527</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>717.9986877533111</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>35.03264989479647</v>
@@ -8766,22 +8768,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>703.1228151115166</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O12" t="n">
-        <v>298.6300347921868</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8927,19 +8929,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>718.9197708299099</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>324.2735691221864</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>717.8873512317331</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>206.5024180439405</v>
       </c>
       <c r="P14" t="n">
         <v>37.5753618102313</v>
@@ -8948,7 +8950,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,22 +9008,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>703.1228151115166</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N15" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>404.6647990524836</v>
+        <v>102.7777664082851</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9173,19 +9175,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>276.0147300838795</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,7 +9251,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>749.7358553685286</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N18" t="n">
         <v>1121.661155963915</v>
@@ -9398,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
@@ -9416,7 +9418,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q20" t="n">
         <v>36.12467460459804</v>
@@ -9483,19 +9485,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>781.6471621574439</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>105.0107851302144</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9638,10 +9640,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>590.5593685239236</v>
       </c>
       <c r="L23" t="n">
-        <v>690.6425725474697</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
         <v>1051.861668373228</v>
@@ -9659,7 +9661,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,19 +9722,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>227.5743145228559</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
@@ -9887,10 +9889,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>723.1315272622221</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
@@ -9960,13 +9962,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
-        <v>949.8342934347922</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O27" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -10115,7 +10117,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>690.6425725474697</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10127,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,10 +10199,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>809.3863451554519</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>882.2851839951743</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
         <v>35.03264989479647</v>
@@ -10422,25 +10424,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>951.5880457335786</v>
+        <v>145.7645730147406</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10586,7 +10588,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>726.5568076874005</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10601,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10671,13 +10673,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>749.810964578424</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10823,10 +10825,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>590.5593685239236</v>
       </c>
       <c r="L38" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
@@ -10841,10 +10843,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>718.9197708299099</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>718.0389912967188</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>690.388049074267</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>325.2461906519227</v>
       </c>
       <c r="P41" t="n">
-        <v>718.1830902075183</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
         <v>36.12467460459804</v>
@@ -11139,22 +11141,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>488.1409796453348</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>703.1228151115166</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574455</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>702.3785696021157</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
@@ -11297,19 +11299,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>542.522231875272</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>718.9197708299099</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>850.5546308803624</v>
       </c>
       <c r="O44" t="n">
-        <v>717.9986877533111</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
         <v>37.5753618102313</v>
@@ -11379,7 +11381,7 @@
         <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>703.1228151115166</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11391,10 +11393,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>102.8370796251082</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>408.0034988235887</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23261,16 +23263,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>110.0908851620204</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23315,10 +23317,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>154.3751838084194</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.8370372785616</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23498,19 +23500,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>375.5986415740073</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
@@ -23552,16 +23554,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>190.5623110741851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23659,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>40.10306663473511</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>78.98801627622801</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>131.0791068915074</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>75.43346327040824</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>35.44779670964751</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24361,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.29091348988666</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>59.64236734312286</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
@@ -24379,10 +24381,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>158.0809632437116</v>
       </c>
       <c r="X28" t="n">
-        <v>236.8791271948803</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>53.32812537571836</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>193.1523949399869</v>
       </c>
     </row>
     <row r="32">
@@ -25072,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="E34" t="n">
-        <v>143.7349349811295</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25363,22 +25365,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>142.4464203654715</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>179.4924275998956</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,22 +25599,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>64.19216452218483</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>59.37454630891094</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25628,22 +25630,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>402.7488832647053</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -25676,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>294.6471598470757</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,19 +25839,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>53.32812537571778</v>
+        <v>16.38488139846518</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>97.78713700031986</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -25913,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>343.7240572803978</v>
       </c>
     </row>
     <row r="45">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26035,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>14.31806783256476</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>131.2146809370897</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>424402.6405536275</v>
+        <v>566716.9041964319</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>424402.6405536274</v>
+        <v>566716.904196432</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>632284.2035296281</v>
+        <v>632284.2035296282</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>632284.2035296281</v>
+        <v>632284.2035296282</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>632284.2035296281</v>
+        <v>632284.2035296282</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>424402.6405536275</v>
+        <v>566716.904196432</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>424402.6405536275</v>
+        <v>566716.9041964321</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>364026.667506977</v>
+        <v>364026.6675069772</v>
       </c>
       <c r="C2" t="n">
-        <v>364026.6675069772</v>
+        <v>364026.6675069769</v>
       </c>
       <c r="D2" t="n">
-        <v>364026.6675069769</v>
+        <v>364026.6675069771</v>
       </c>
       <c r="E2" t="n">
-        <v>235779.2447520152</v>
+        <v>314842.7245535732</v>
       </c>
       <c r="F2" t="n">
-        <v>235779.2447520151</v>
+        <v>314842.7245535732</v>
       </c>
       <c r="G2" t="n">
-        <v>351269.0019609047</v>
+        <v>351269.0019609046</v>
       </c>
       <c r="H2" t="n">
         <v>351269.0019609047</v>
@@ -26335,25 +26337,25 @@
         <v>351269.0019609046</v>
       </c>
       <c r="J2" t="n">
-        <v>351269.0019609045</v>
+        <v>351269.0019609047</v>
       </c>
       <c r="K2" t="n">
+        <v>351269.0019609047</v>
+      </c>
+      <c r="L2" t="n">
         <v>351269.0019609046</v>
       </c>
-      <c r="L2" t="n">
-        <v>351269.0019609045</v>
-      </c>
       <c r="M2" t="n">
-        <v>351269.0019609046</v>
+        <v>351269.0019609047</v>
       </c>
       <c r="N2" t="n">
         <v>351269.0019609046</v>
       </c>
       <c r="O2" t="n">
-        <v>235779.2447520151</v>
+        <v>314842.724553573</v>
       </c>
       <c r="P2" t="n">
-        <v>235779.2447520151</v>
+        <v>314842.7245535732</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>228087.303763684</v>
+        <v>186404.7334147372</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>165841.36523708</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>163951.1208101861</v>
+        <v>51711.33053014221</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>178076.9284887798</v>
+        <v>145533.6699348165</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>135122.0325442417</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>117636.3073549515</v>
+        <v>139507.7493322929</v>
       </c>
       <c r="C4" t="n">
-        <v>117636.3073549515</v>
+        <v>139507.7493322929</v>
       </c>
       <c r="D4" t="n">
-        <v>117636.3073549514</v>
+        <v>45626.98260689655</v>
       </c>
       <c r="E4" t="n">
-        <v>517.2570589421075</v>
+        <v>710.8621518139972</v>
       </c>
       <c r="F4" t="n">
-        <v>517.2570589421075</v>
+        <v>710.8621518139971</v>
       </c>
       <c r="G4" t="n">
         <v>800.0602599433671</v>
       </c>
       <c r="H4" t="n">
+        <v>800.0602599433672</v>
+      </c>
+      <c r="I4" t="n">
         <v>800.0602599433671</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>800.0602599433672</v>
-      </c>
-      <c r="J4" t="n">
-        <v>800.0602599433671</v>
       </c>
       <c r="K4" t="n">
         <v>800.0602599433672</v>
       </c>
       <c r="L4" t="n">
+        <v>800.0602599433673</v>
+      </c>
+      <c r="M4" t="n">
         <v>800.0602599433672</v>
       </c>
-      <c r="M4" t="n">
-        <v>800.0602599433671</v>
-      </c>
       <c r="N4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="O4" t="n">
-        <v>517.2570589421075</v>
+        <v>710.8621518139971</v>
       </c>
       <c r="P4" t="n">
-        <v>517.2570589421075</v>
+        <v>710.8621518139971</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>75008.54988655505</v>
+        <v>99906.58972465878</v>
       </c>
       <c r="E5" t="n">
-        <v>41380.94988655505</v>
+        <v>66278.98972465879</v>
       </c>
       <c r="F5" t="n">
-        <v>41380.94988655505</v>
+        <v>66278.98972465879</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>41380.94988655505</v>
+        <v>66278.98972465879</v>
       </c>
       <c r="P5" t="n">
-        <v>41380.94988655505</v>
+        <v>66278.98972465879</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-56705.49349821355</v>
+        <v>-29332.06627748109</v>
       </c>
       <c r="C6" t="n">
-        <v>171381.8102654707</v>
+        <v>157072.6671372559</v>
       </c>
       <c r="D6" t="n">
-        <v>171381.8102654705</v>
+        <v>52651.72993834177</v>
       </c>
       <c r="E6" t="n">
-        <v>193881.037806518</v>
+        <v>247852.8726771004</v>
       </c>
       <c r="F6" t="n">
-        <v>193881.037806518</v>
+        <v>247852.8726771004</v>
       </c>
       <c r="G6" t="n">
-        <v>108767.7587023456</v>
+        <v>221007.5489823893</v>
       </c>
       <c r="H6" t="n">
         <v>272718.8795125316</v>
       </c>
       <c r="I6" t="n">
-        <v>272718.8795125315</v>
+        <v>272718.8795125316</v>
       </c>
       <c r="J6" t="n">
-        <v>94641.95102375168</v>
+        <v>127185.2095777151</v>
       </c>
       <c r="K6" t="n">
         <v>272718.8795125316</v>
       </c>
       <c r="L6" t="n">
+        <v>137596.8469682899</v>
+      </c>
+      <c r="M6" t="n">
+        <v>272718.8795125317</v>
+      </c>
+      <c r="N6" t="n">
         <v>272718.8795125315</v>
       </c>
-      <c r="M6" t="n">
-        <v>272718.8795125316</v>
-      </c>
-      <c r="N6" t="n">
-        <v>272718.8795125316</v>
-      </c>
       <c r="O6" t="n">
-        <v>193881.0378065179</v>
+        <v>247852.8726771002</v>
       </c>
       <c r="P6" t="n">
-        <v>193881.037806518</v>
+        <v>247852.8726771004</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>680.607728397287</v>
+        <v>1090.114962576625</v>
       </c>
       <c r="E4" t="n">
-        <v>680.607728397287</v>
+        <v>1090.114962576625</v>
       </c>
       <c r="F4" t="n">
-        <v>680.607728397287</v>
+        <v>1090.114962576625</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>680.607728397287</v>
+        <v>1090.114962576625</v>
       </c>
       <c r="P4" t="n">
-        <v>680.607728397287</v>
+        <v>1090.114962576625</v>
       </c>
     </row>
   </sheetData>
@@ -27009,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>533.8871494610308</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>598.1761891755698</v>
+        <v>188.6689549962318</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.6077283972871</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>533.8871494610306</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27255,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>533.8871494610308</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>598.1761891755698</v>
+        <v>188.6689549962318</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>113.502957991689</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>53.82850041003991</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27399,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
@@ -27439,13 +27441,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>79.23215548632201</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,10 +27593,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>112.3975656955433</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>93.5933704773629</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27625,13 +27627,13 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -27670,13 +27672,13 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>260.238740201912</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27786,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,16 +27824,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>94.41114038126489</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>233.4515955166426</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27856,19 +27858,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>162.7009987399606</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>21.68412084899478</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27907,13 +27909,13 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28014,13 +28016,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>76.75554697377117</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>680.607728397287</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="P2" t="n">
-        <v>73.67225009225932</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34772,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -34781,19 +34783,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>382.8939578476548</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N3" t="n">
-        <v>680.607728397287</v>
+        <v>67.9041137177578</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34933,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,19 +34947,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>534.3646536318382</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>680.607728397287</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>527.4536661148496</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>542.3781918554992</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>139.846560801892</v>
       </c>
       <c r="N8" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>192.4160227002419</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P8" t="n">
-        <v>680.607728397287</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -35255,16 +35257,16 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>382.8939578476548</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>680.607728397287</v>
+        <v>838.1216156792152</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>680.607728397287</v>
+        <v>549.8984923780357</v>
       </c>
       <c r="L11" t="n">
-        <v>680.607728397287</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>653.1084262398209</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O12" t="n">
-        <v>275.4581450699646</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35647,19 +35649,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>680.607728397287</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>286.8423062227546</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>680.607728397287</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>169.1114586879164</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35668,7 +35670,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N15" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>382.8939578476549</v>
+        <v>81.00692520345643</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35893,19 +35895,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>238.7351072494335</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,7 +35971,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>726.6390748562006</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N18" t="n">
         <v>1100.318127750374</v>
@@ -36118,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
@@ -36136,7 +36138,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36203,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>760.3041339439022</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>83.23994392538575</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36358,10 +36360,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>722.7356646217162</v>
+        <v>554.7947677291143</v>
       </c>
       <c r="L23" t="n">
-        <v>652.3305301148469</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
         <v>1014.430405473796</v>
@@ -36379,7 +36381,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,19 +36442,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36607,10 +36609,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>685.740567906198</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36680,13 +36682,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
-        <v>928.4912652212506</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O27" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36835,7 +36837,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>652.3305301148469</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
@@ -36847,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,10 +36919,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37066,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>939.015199615431</v>
+        <v>771.074302722829</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>844.8942246391501</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37142,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>928.4912652212506</v>
+        <v>122.6677925024126</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>690.7922068925911</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37321,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,13 +37393,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37543,10 +37545,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>554.7947677291143</v>
       </c>
       <c r="L38" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
@@ -37561,10 +37563,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37777,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>680.607728397287</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>680.607728397287</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>653.1084262398209</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>287.8552312958986</v>
       </c>
       <c r="P41" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>465.7417458120015</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>760.3041339439038</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,19 +38019,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>506.7576310804627</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>680.607728397287</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>813.2750080459164</v>
       </c>
       <c r="O44" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38099,7 +38101,7 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>680.607728397287</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38111,10 +38113,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>81.06623842027952</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1506445.989216107</v>
+        <v>1505618.070591661</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1195188.384728778</v>
+        <v>1195188.384728777</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>368.803222276793</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>374.0589459242487</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -873,10 +873,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>85.36224452238888</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -885,7 +885,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>111.6817749316121</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>322.0565101712518</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
@@ -913,7 +913,7 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
@@ -964,7 +964,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>280.5402851765971</v>
       </c>
     </row>
     <row r="6">
@@ -1074,7 +1074,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>45.44275720140884</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1135,7 +1135,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>193.7688633230486</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
@@ -1147,13 +1147,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>273.2055738917107</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
@@ -1384,13 +1384,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>356.6417700168824</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>199.5393369165936</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -1533,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1612,10 +1612,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>43.46105303284243</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>211.9140056966865</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
@@ -1627,7 +1627,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
@@ -1785,7 +1785,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,10 +1821,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>205.6296692962677</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1833,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1912,7 +1912,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446598</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>85.60638373248217</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>183.2283782874848</v>
       </c>
       <c r="C22" t="n">
-        <v>94.8193742194649</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
@@ -2298,13 +2298,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2484,16 +2484,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>104.9037564455521</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>123.9086344760396</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2721,7 +2721,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>175.6665542587261</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
@@ -2775,10 +2775,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>114.0229165455005</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2952,25 +2952,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3012,13 +3012,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>30.92694568716851</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3189,16 +3189,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>98.26334559068066</v>
       </c>
       <c r="D34" t="n">
-        <v>51.58543740429417</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>44.58691302725981</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>49.87597792716544</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>218.0080577057878</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3745,7 +3745,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>16.31081134214432</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -3757,10 +3757,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>37.19088974669558</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3960,10 +3960,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>255.7189983907469</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3994,10 +3994,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>140.5145109322866</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
@@ -4045,7 +4045,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>57.55984006426074</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
@@ -4149,10 +4149,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -4194,13 +4194,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>164.7047943182447</v>
       </c>
       <c r="X46" t="n">
-        <v>108.9235766515633</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>883.6383251666246</v>
+        <v>1225.320495885926</v>
       </c>
       <c r="C2" t="n">
-        <v>511.1098178163286</v>
+        <v>1202.46016993963</v>
       </c>
       <c r="D2" t="n">
-        <v>491.857601041733</v>
+        <v>824.622850824227</v>
       </c>
       <c r="E2" t="n">
-        <v>65.88066118959054</v>
+        <v>802.6863150124886</v>
       </c>
       <c r="F2" t="n">
-        <v>44.79688341939484</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924753</v>
@@ -4333,16 +4333,16 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K2" t="n">
-        <v>595.1637600336857</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L2" t="n">
-        <v>1145.829295018124</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M2" t="n">
-        <v>1145.829295018124</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N2" t="n">
-        <v>1145.829295018124</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O2" t="n">
         <v>1651.269438076291</v>
@@ -4357,25 +4357,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>2120.543958335517</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U2" t="n">
-        <v>2120.543958335517</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V2" t="n">
-        <v>2120.543958335517</v>
+        <v>1646.496266633259</v>
       </c>
       <c r="W2" t="n">
-        <v>2120.543958335517</v>
+        <v>1250.104916933606</v>
       </c>
       <c r="X2" t="n">
-        <v>1708.823959503264</v>
+        <v>1242.425322141757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1303.486689458155</v>
+        <v>1241.128456137052</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K3" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L3" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M3" t="n">
-        <v>602.6104029955975</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="N3" t="n">
-        <v>669.8354755761777</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="O3" t="n">
-        <v>1220.501010560616</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P3" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q3" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>789.4498147466326</v>
+        <v>961.4223778677166</v>
       </c>
       <c r="C4" t="n">
         <v>789.4498147466326</v>
@@ -4521,19 +4521,19 @@
         <v>1981.571904688276</v>
       </c>
       <c r="U4" t="n">
-        <v>1701.387456188581</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="V4" t="n">
-        <v>1419.67598879661</v>
+        <v>1895.347415271722</v>
       </c>
       <c r="W4" t="n">
-        <v>1144.823584969123</v>
+        <v>1620.495011444235</v>
       </c>
       <c r="X4" t="n">
-        <v>902.2596884149276</v>
+        <v>1377.93111489004</v>
       </c>
       <c r="Y4" t="n">
-        <v>789.4498147466326</v>
+        <v>1151.588346579782</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>427.7981182481856</v>
+        <v>129.9297397222204</v>
       </c>
       <c r="C5" t="n">
-        <v>404.9377923018898</v>
+        <v>107.0694137759246</v>
       </c>
       <c r="D5" t="n">
-        <v>385.6855755272941</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E5" t="n">
-        <v>363.7490397155557</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F5" t="n">
-        <v>342.66526194536</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
         <v>44.49822504924753</v>
@@ -4567,52 +4567,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>957.7672188505812</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L5" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M5" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N5" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O5" t="n">
-        <v>1508.432753835019</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>1966.556343058789</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V5" t="n">
-        <v>1966.556343058789</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W5" t="n">
-        <v>1570.164993359136</v>
+        <v>1244.872128276909</v>
       </c>
       <c r="X5" t="n">
-        <v>1158.444994526883</v>
+        <v>833.1521294446566</v>
       </c>
       <c r="Y5" t="n">
-        <v>753.1077244817733</v>
+        <v>549.7781040137504</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M6" t="n">
-        <v>316.1957143288386</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N6" t="n">
-        <v>838.3748437825398</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O6" t="n">
-        <v>838.3748437825398</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
         <v>1853.185855629757</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1027.91077931376</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>855.9382161926764</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>692.6214433194471</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>526.4132374723006</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>354.551463246861</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4752,25 +4752,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T7" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U7" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V7" t="n">
-        <v>1961.835816717766</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W7" t="n">
-        <v>1686.983412890279</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
-        <v>1444.419516336084</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>1218.076748025826</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2468.807958034366</v>
+        <v>1890.392972205249</v>
       </c>
       <c r="C8" t="n">
-        <v>2041.907228047667</v>
+        <v>1694.666847636513</v>
       </c>
       <c r="D8" t="n">
-        <v>1618.614607232667</v>
+        <v>1271.374226821514</v>
       </c>
       <c r="E8" t="n">
-        <v>1192.637667380524</v>
+        <v>845.3972869693711</v>
       </c>
       <c r="F8" t="n">
-        <v>767.5134855699246</v>
+        <v>420.2731051587713</v>
       </c>
       <c r="G8" t="n">
-        <v>363.1744231593732</v>
+        <v>419.9744467886239</v>
       </c>
       <c r="H8" t="n">
-        <v>87.20919700613</v>
+        <v>122.1060682626588</v>
       </c>
       <c r="I8" t="n">
         <v>87.20919700613</v>
       </c>
       <c r="J8" t="n">
-        <v>449.8126558230255</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K8" t="n">
-        <v>1165.320963798525</v>
+        <v>802.7175049816291</v>
       </c>
       <c r="L8" t="n">
-        <v>2094.946011417801</v>
+        <v>1215.55793173863</v>
       </c>
       <c r="M8" t="n">
-        <v>2233.394106611674</v>
+        <v>2219.844033157688</v>
       </c>
       <c r="N8" t="n">
-        <v>2233.394106611674</v>
+        <v>3196.095091644389</v>
       </c>
       <c r="O8" t="n">
-        <v>3078.538756762487</v>
+        <v>3196.095091644389</v>
       </c>
       <c r="P8" t="n">
-        <v>3786.818035920414</v>
+        <v>3904.374370802317</v>
       </c>
       <c r="Q8" t="n">
-        <v>4242.903515424598</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="R8" t="n">
         <v>4360.4598503065</v>
@@ -4834,22 +4834,22 @@
         <v>4360.4598503065</v>
       </c>
       <c r="T8" t="n">
-        <v>4360.4598503065</v>
+        <v>4139.534279351133</v>
       </c>
       <c r="U8" t="n">
-        <v>4102.104940902912</v>
+        <v>3881.179369947545</v>
       </c>
       <c r="V8" t="n">
-        <v>4102.104940902912</v>
+        <v>3523.689955073794</v>
       </c>
       <c r="W8" t="n">
-        <v>3705.713591203259</v>
+        <v>3127.298605374142</v>
       </c>
       <c r="X8" t="n">
-        <v>3293.993592371006</v>
+        <v>2715.578606541889</v>
       </c>
       <c r="Y8" t="n">
-        <v>2888.656322325897</v>
+        <v>2310.241336496779</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>94.65583996804183</v>
       </c>
       <c r="J9" t="n">
-        <v>94.65583996804183</v>
+        <v>366.3533292476329</v>
       </c>
       <c r="K9" t="n">
-        <v>94.65583996804183</v>
+        <v>366.3533292476329</v>
       </c>
       <c r="L9" t="n">
-        <v>94.65583996804183</v>
+        <v>366.3533292476329</v>
       </c>
       <c r="M9" t="n">
-        <v>94.65583996804183</v>
+        <v>366.3533292476329</v>
       </c>
       <c r="N9" t="n">
-        <v>924.3962394904649</v>
+        <v>366.3533292476329</v>
       </c>
       <c r="O9" t="n">
-        <v>1813.877517501937</v>
+        <v>633.5343236006593</v>
       </c>
       <c r="P9" t="n">
-        <v>1813.877517501937</v>
+        <v>1349.732040639157</v>
       </c>
       <c r="Q9" t="n">
         <v>1813.877517501937</v>
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2525.607981663617</v>
+        <v>2148.747881608837</v>
       </c>
       <c r="C11" t="n">
-        <v>2098.707251676917</v>
+        <v>1721.847151622137</v>
       </c>
       <c r="D11" t="n">
-        <v>1675.414630861917</v>
+        <v>1298.554530807137</v>
       </c>
       <c r="E11" t="n">
-        <v>1249.437691009775</v>
+        <v>872.5775909549949</v>
       </c>
       <c r="F11" t="n">
-        <v>824.3135091991753</v>
+        <v>447.4534091443951</v>
       </c>
       <c r="G11" t="n">
-        <v>419.9744467886239</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H11" t="n">
-        <v>122.1060682626588</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I11" t="n">
         <v>87.20919700613</v>
       </c>
       <c r="J11" t="n">
-        <v>449.8126558230255</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K11" t="n">
-        <v>994.2121632772809</v>
+        <v>802.7175049816291</v>
       </c>
       <c r="L11" t="n">
-        <v>1923.837210896558</v>
+        <v>1732.342552600906</v>
       </c>
       <c r="M11" t="n">
-        <v>2928.123312315616</v>
+        <v>2736.628654019964</v>
       </c>
       <c r="N11" t="n">
-        <v>3904.374370802317</v>
+        <v>3712.879712506665</v>
       </c>
       <c r="O11" t="n">
-        <v>3904.374370802317</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="P11" t="n">
-        <v>3904.374370802317</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="Q11" t="n">
         <v>4360.4598503065</v>
@@ -5071,22 +5071,22 @@
         <v>4360.4598503065</v>
       </c>
       <c r="T11" t="n">
-        <v>4360.4598503065</v>
+        <v>4139.534279351133</v>
       </c>
       <c r="U11" t="n">
-        <v>4360.4598503065</v>
+        <v>4139.534279351133</v>
       </c>
       <c r="V11" t="n">
-        <v>4158.904964532163</v>
+        <v>3782.044864477382</v>
       </c>
       <c r="W11" t="n">
-        <v>3762.51361483251</v>
+        <v>3385.653514777729</v>
       </c>
       <c r="X11" t="n">
-        <v>3350.793616000257</v>
+        <v>2973.933515945477</v>
       </c>
       <c r="Y11" t="n">
-        <v>2945.456345955147</v>
+        <v>2568.596245900367</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>87.20919700613</v>
       </c>
       <c r="I12" t="n">
-        <v>87.20919700613</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="J12" t="n">
-        <v>87.20919700613</v>
+        <v>366.3533292476329</v>
       </c>
       <c r="K12" t="n">
-        <v>87.20919700613</v>
+        <v>366.3533292476329</v>
       </c>
       <c r="L12" t="n">
-        <v>87.20919700613</v>
+        <v>366.3533292476329</v>
       </c>
       <c r="M12" t="n">
-        <v>87.20919700613</v>
+        <v>1422.339867223678</v>
       </c>
       <c r="N12" t="n">
-        <v>1006.415549575168</v>
+        <v>1422.339867223678</v>
       </c>
       <c r="O12" t="n">
-        <v>1895.89682758664</v>
+        <v>1422.339867223678</v>
       </c>
       <c r="P12" t="n">
-        <v>1895.89682758664</v>
+        <v>1422.339867223678</v>
       </c>
       <c r="Q12" t="n">
-        <v>1895.89682758664</v>
+        <v>1813.877517501937</v>
       </c>
       <c r="R12" t="n">
         <v>1895.89682758664</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1170.390319530367</v>
+        <v>431.0435343526535</v>
       </c>
       <c r="C13" t="n">
-        <v>998.4177564092828</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="D13" t="n">
-        <v>835.1009835360535</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="E13" t="n">
-        <v>668.892777688907</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="F13" t="n">
-        <v>497.0310034634675</v>
+        <v>87.20919700613</v>
       </c>
       <c r="G13" t="n">
-        <v>330.7740337576996</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H13" t="n">
-        <v>186.977765265854</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I13" t="n">
         <v>87.20919700613</v>
@@ -5226,25 +5226,25 @@
         <v>2267.622224419258</v>
       </c>
       <c r="S13" t="n">
-        <v>2267.622224419258</v>
+        <v>2170.203835422426</v>
       </c>
       <c r="T13" t="n">
-        <v>2267.622224419258</v>
+        <v>1926.864487648326</v>
       </c>
       <c r="U13" t="n">
-        <v>2267.622224419258</v>
+        <v>1646.68003914863</v>
       </c>
       <c r="V13" t="n">
-        <v>2104.315356934372</v>
+        <v>1364.968571756659</v>
       </c>
       <c r="W13" t="n">
-        <v>1829.462953106885</v>
+        <v>1090.116167929172</v>
       </c>
       <c r="X13" t="n">
-        <v>1586.89905655269</v>
+        <v>847.5522713749772</v>
       </c>
       <c r="Y13" t="n">
-        <v>1360.556288242432</v>
+        <v>621.2095030647192</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2111.318543160616</v>
+        <v>1890.392972205249</v>
       </c>
       <c r="C14" t="n">
-        <v>1684.417813173916</v>
+        <v>1463.492242218549</v>
       </c>
       <c r="D14" t="n">
-        <v>1640.517759605389</v>
+        <v>1463.492242218549</v>
       </c>
       <c r="E14" t="n">
-        <v>1214.540819753246</v>
+        <v>1249.437691009775</v>
       </c>
       <c r="F14" t="n">
-        <v>789.4166379426465</v>
+        <v>824.3135091991753</v>
       </c>
       <c r="G14" t="n">
-        <v>385.0775755320952</v>
+        <v>419.9744467886239</v>
       </c>
       <c r="H14" t="n">
-        <v>87.20919700613</v>
+        <v>122.1060682626588</v>
       </c>
       <c r="I14" t="n">
         <v>87.20919700613</v>
@@ -5293,13 +5293,13 @@
         <v>4075.48317132356</v>
       </c>
       <c r="O14" t="n">
-        <v>4242.903515424598</v>
+        <v>4075.48317132356</v>
       </c>
       <c r="P14" t="n">
-        <v>4242.903515424598</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="Q14" t="n">
-        <v>4242.903515424598</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="R14" t="n">
         <v>4360.4598503065</v>
@@ -5308,22 +5308,22 @@
         <v>4360.4598503065</v>
       </c>
       <c r="T14" t="n">
-        <v>4360.4598503065</v>
+        <v>4139.534279351133</v>
       </c>
       <c r="U14" t="n">
-        <v>4102.104940902912</v>
+        <v>3881.179369947545</v>
       </c>
       <c r="V14" t="n">
-        <v>3744.615526029162</v>
+        <v>3523.689955073794</v>
       </c>
       <c r="W14" t="n">
-        <v>3348.224176329509</v>
+        <v>3127.298605374142</v>
       </c>
       <c r="X14" t="n">
-        <v>2936.504177497256</v>
+        <v>2715.578606541889</v>
       </c>
       <c r="Y14" t="n">
-        <v>2531.166907452146</v>
+        <v>2310.241336496779</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>87.20919700613</v>
       </c>
       <c r="I15" t="n">
-        <v>87.20919700613</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="J15" t="n">
-        <v>87.20919700613</v>
+        <v>366.3533292476329</v>
       </c>
       <c r="K15" t="n">
-        <v>677.6941235744696</v>
+        <v>633.5343236006593</v>
       </c>
       <c r="L15" t="n">
-        <v>677.6941235744696</v>
+        <v>633.5343236006593</v>
       </c>
       <c r="M15" t="n">
-        <v>1733.680661550515</v>
+        <v>633.5343236006593</v>
       </c>
       <c r="N15" t="n">
-        <v>1733.680661550515</v>
+        <v>633.5343236006593</v>
       </c>
       <c r="O15" t="n">
-        <v>1733.680661550515</v>
+        <v>633.5343236006593</v>
       </c>
       <c r="P15" t="n">
-        <v>1813.877517501937</v>
+        <v>1349.732040639157</v>
       </c>
       <c r="Q15" t="n">
         <v>1813.877517501937</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1170.390319530367</v>
+        <v>1070.621751270643</v>
       </c>
       <c r="C16" t="n">
-        <v>998.4177564092828</v>
+        <v>898.6491881495588</v>
       </c>
       <c r="D16" t="n">
-        <v>835.1009835360535</v>
+        <v>735.3324152763295</v>
       </c>
       <c r="E16" t="n">
-        <v>668.892777688907</v>
+        <v>569.124209429183</v>
       </c>
       <c r="F16" t="n">
-        <v>497.0310034634675</v>
+        <v>397.2624352037435</v>
       </c>
       <c r="G16" t="n">
-        <v>330.7740337576996</v>
+        <v>231.0054654979756</v>
       </c>
       <c r="H16" t="n">
-        <v>186.977765265854</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I16" t="n">
         <v>87.20919700613</v>
@@ -5469,19 +5469,19 @@
         <v>2267.622224419258</v>
       </c>
       <c r="U16" t="n">
-        <v>2267.622224419258</v>
+        <v>2059.915487756361</v>
       </c>
       <c r="V16" t="n">
-        <v>2104.315356934372</v>
+        <v>1778.20402036439</v>
       </c>
       <c r="W16" t="n">
-        <v>1829.462953106885</v>
+        <v>1503.351616536903</v>
       </c>
       <c r="X16" t="n">
-        <v>1586.89905655269</v>
+        <v>1260.787719982708</v>
       </c>
       <c r="Y16" t="n">
-        <v>1360.556288242432</v>
+        <v>1260.787719982708</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5503,13 +5503,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5551,13 +5551,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5591,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M18" t="n">
-        <v>821.6753975134684</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>789.9291292906429</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>789.9291292906429</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>626.6123564174136</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>460.4041505702671</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>288.5423763448275</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5700,25 +5700,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1032.493025844838</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>789.9291292906429</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>789.9291292906429</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5779,25 +5779,25 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>939.1015214887346</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M21" t="n">
-        <v>939.1015214887346</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="N21" t="n">
-        <v>939.1015214887346</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O21" t="n">
-        <v>1828.582799500206</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1109.288418485209</v>
+        <v>847.4138558574795</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808982</v>
+        <v>675.4412927363954</v>
       </c>
       <c r="D22" t="n">
-        <v>850.1944999357522</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="F22" t="n">
         <v>512.1245198631661</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1542.018283751469</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>1542.018283751469</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>1299.454387197274</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="Y22" t="n">
-        <v>1299.454387197274</v>
+        <v>1032.493025844838</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>651.5495334576516</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1581.174581076928</v>
+        <v>1983.783825177544</v>
       </c>
       <c r="M23" t="n">
-        <v>2585.460682495986</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N23" t="n">
-        <v>3561.711740982687</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6065,28 +6065,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L24" t="n">
-        <v>305.3113489363686</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="M24" t="n">
-        <v>305.3113489363686</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="N24" t="n">
-        <v>305.3113489363686</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="O24" t="n">
-        <v>1194.79262694784</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q24" t="n">
         <v>1910.990343986338</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>543.5554397491844</v>
+        <v>1067.07923602298</v>
       </c>
       <c r="C25" t="n">
-        <v>371.5828766281004</v>
+        <v>895.1066729018962</v>
       </c>
       <c r="D25" t="n">
-        <v>208.2661037548711</v>
+        <v>731.7899000286669</v>
       </c>
       <c r="E25" t="n">
-        <v>102.3027134058285</v>
+        <v>565.5816941815204</v>
       </c>
       <c r="F25" t="n">
-        <v>102.3027134058285</v>
+        <v>393.7199199560808</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>227.462950250313</v>
       </c>
       <c r="H25" t="n">
         <v>102.3027134058285</v>
@@ -6177,22 +6177,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>2039.376393044857</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U25" t="n">
-        <v>1759.191944545161</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V25" t="n">
-        <v>1477.48047715319</v>
+        <v>2001.004273426986</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.628073325703</v>
+        <v>1726.151869599499</v>
       </c>
       <c r="X25" t="n">
-        <v>960.064176771508</v>
+        <v>1483.587973045304</v>
       </c>
       <c r="Y25" t="n">
-        <v>733.72140846125</v>
+        <v>1257.245204735046</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6302,19 +6302,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N27" t="n">
         <v>1910.990343986338</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>775.6620294727279</v>
+        <v>609.4538236255814</v>
       </c>
       <c r="C28" t="n">
-        <v>603.6894663516439</v>
+        <v>437.4812605044974</v>
       </c>
       <c r="D28" t="n">
-        <v>440.3726934784146</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
         <v>274.1644876312681</v>
@@ -6411,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>1869.241345563992</v>
+        <v>2105.274776921254</v>
       </c>
       <c r="U28" t="n">
-        <v>1589.056897064296</v>
+        <v>1825.090328421558</v>
       </c>
       <c r="V28" t="n">
-        <v>1307.345429672325</v>
+        <v>1543.378861029587</v>
       </c>
       <c r="W28" t="n">
-        <v>1192.170766495052</v>
+        <v>1268.5264572021</v>
       </c>
       <c r="X28" t="n">
-        <v>1192.170766495052</v>
+        <v>1025.962560647905</v>
       </c>
       <c r="Y28" t="n">
-        <v>965.8279981847936</v>
+        <v>799.6197923376471</v>
       </c>
     </row>
     <row r="29">
@@ -6463,22 +6463,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P29" t="n">
         <v>5115.135670291427</v>
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1013.511272808982</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6648,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>2039.376393044857</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1759.191944545161</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1477.48047715319</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1477.48047715319</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>1234.916580598995</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>1203.677241521047</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1581.174581076928</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2585.460682495986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3561.711740982687</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>4406.8563911335</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6779,16 +6779,16 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>700.2342829360799</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>700.2342829360799</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N33" t="n">
         <v>1910.990343986338</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>326.3817789554925</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C34" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X34" t="n">
-        <v>742.8905159778161</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y34" t="n">
-        <v>516.5477476675582</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="35">
@@ -6937,22 +6937,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P35" t="n">
         <v>5115.135670291427</v>
@@ -7013,22 +7013,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>1537.033091018986</v>
       </c>
       <c r="M36" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N36" t="n">
-        <v>1191.617659878699</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O36" t="n">
         <v>1910.990343986338</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3530.273159564166</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>3530.273159564166</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>3366.956386690937</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>3200.748180843791</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>3200.748180843791</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>4897.962009497735</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>4654.622661723635</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>4374.43821322394</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>4092.726745831969</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>3817.874342004482</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>3575.310445450287</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>3530.273159564166</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7174,22 +7174,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>651.5495334576516</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1581.174581076928</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2585.460682495986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>3561.711740982687</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>4406.8563911335</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P38" t="n">
         <v>5115.135670291427</v>
@@ -7250,19 +7250,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N39" t="n">
         <v>1910.990343986338</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4017.903765402536</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="C40" t="n">
-        <v>3845.931202281452</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="D40" t="n">
-        <v>3682.614429408222</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>3516.406223561076</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>4897.962009497735</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T40" t="n">
-        <v>4654.622661723635</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U40" t="n">
-        <v>4434.41250242486</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V40" t="n">
-        <v>4434.41250242486</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W40" t="n">
-        <v>4434.41250242486</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X40" t="n">
-        <v>4434.41250242486</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y40" t="n">
-        <v>4208.069734114601</v>
+        <v>686.6827951484232</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1786.02567807839</v>
+        <v>2265.306158437344</v>
       </c>
       <c r="C41" t="n">
-        <v>1359.124948091691</v>
+        <v>1838.405428450645</v>
       </c>
       <c r="D41" t="n">
-        <v>1342.649381079424</v>
+        <v>1415.112807635645</v>
       </c>
       <c r="E41" t="n">
-        <v>916.6724412272812</v>
+        <v>989.1358677835025</v>
       </c>
       <c r="F41" t="n">
-        <v>491.5482594166814</v>
+        <v>564.0116859729027</v>
       </c>
       <c r="G41" t="n">
-        <v>87.20919700613</v>
+        <v>159.6726235623513</v>
       </c>
       <c r="H41" t="n">
-        <v>87.20919700613</v>
+        <v>122.1060682626588</v>
       </c>
       <c r="I41" t="n">
         <v>87.20919700613</v>
       </c>
       <c r="J41" t="n">
-        <v>449.8126558230255</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K41" t="n">
-        <v>1165.320963798525</v>
+        <v>605.152992630652</v>
       </c>
       <c r="L41" t="n">
-        <v>2094.946011417801</v>
+        <v>1534.778040249929</v>
       </c>
       <c r="M41" t="n">
-        <v>3099.232112836859</v>
+        <v>2539.064141668987</v>
       </c>
       <c r="N41" t="n">
-        <v>4075.48317132356</v>
+        <v>3515.315200155688</v>
       </c>
       <c r="O41" t="n">
         <v>4360.4598503065</v>
@@ -7441,22 +7441,22 @@
         <v>4256.09255617964</v>
       </c>
       <c r="T41" t="n">
-        <v>4035.166985224274</v>
+        <v>4256.09255617964</v>
       </c>
       <c r="U41" t="n">
-        <v>3776.812075820686</v>
+        <v>4256.09255617964</v>
       </c>
       <c r="V41" t="n">
-        <v>3419.322660946936</v>
+        <v>3898.60314130589</v>
       </c>
       <c r="W41" t="n">
-        <v>3022.931311247283</v>
+        <v>3502.211791606237</v>
       </c>
       <c r="X41" t="n">
-        <v>2611.21131241503</v>
+        <v>3090.491792773984</v>
       </c>
       <c r="Y41" t="n">
-        <v>2205.874042369921</v>
+        <v>2685.154522728875</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>87.20919700613</v>
       </c>
       <c r="I42" t="n">
-        <v>87.20919700613</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="J42" t="n">
-        <v>87.20919700613</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="K42" t="n">
-        <v>87.20919700613</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="L42" t="n">
-        <v>87.20919700613</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="M42" t="n">
-        <v>1143.195734982175</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="N42" t="n">
-        <v>1895.89682758664</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="O42" t="n">
-        <v>1895.89682758664</v>
+        <v>633.5343236006593</v>
       </c>
       <c r="P42" t="n">
-        <v>1895.89682758664</v>
+        <v>1349.732040639157</v>
       </c>
       <c r="Q42" t="n">
-        <v>1895.89682758664</v>
+        <v>1813.877517501937</v>
       </c>
       <c r="R42" t="n">
         <v>1895.89682758664</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>760.5685130730293</v>
+        <v>431.0435343526535</v>
       </c>
       <c r="C43" t="n">
-        <v>588.5959499519453</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="D43" t="n">
-        <v>425.279177078716</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="E43" t="n">
         <v>259.0709712315696</v>
@@ -7593,28 +7593,28 @@
         <v>2267.622224419258</v>
       </c>
       <c r="R43" t="n">
-        <v>2220.583611106431</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="S43" t="n">
-        <v>2050.448563625566</v>
+        <v>2170.203835422426</v>
       </c>
       <c r="T43" t="n">
-        <v>1807.109215851466</v>
+        <v>1926.864487648326</v>
       </c>
       <c r="U43" t="n">
-        <v>1526.92476735177</v>
+        <v>1646.68003914863</v>
       </c>
       <c r="V43" t="n">
-        <v>1245.213299959799</v>
+        <v>1364.968571756659</v>
       </c>
       <c r="W43" t="n">
-        <v>986.9112813832872</v>
+        <v>1090.116167929172</v>
       </c>
       <c r="X43" t="n">
-        <v>986.9112813832872</v>
+        <v>847.5522713749772</v>
       </c>
       <c r="Y43" t="n">
-        <v>760.5685130730293</v>
+        <v>621.2095030647192</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2490.711110407088</v>
+        <v>2227.739603137652</v>
       </c>
       <c r="C44" t="n">
-        <v>2063.810380420388</v>
+        <v>1800.838873150952</v>
       </c>
       <c r="D44" t="n">
-        <v>1640.517759605389</v>
+        <v>1377.546252335952</v>
       </c>
       <c r="E44" t="n">
-        <v>1214.540819753246</v>
+        <v>951.56931248381</v>
       </c>
       <c r="F44" t="n">
-        <v>789.4166379426465</v>
+        <v>526.4451306732102</v>
       </c>
       <c r="G44" t="n">
-        <v>385.0775755320952</v>
+        <v>122.1060682626588</v>
       </c>
       <c r="H44" t="n">
-        <v>87.20919700613</v>
+        <v>122.1060682626588</v>
       </c>
       <c r="I44" t="n">
         <v>87.20919700613</v>
@@ -7660,13 +7660,13 @@
         <v>3099.232112836859</v>
       </c>
       <c r="N44" t="n">
-        <v>3904.374370802317</v>
+        <v>4075.48317132356</v>
       </c>
       <c r="O44" t="n">
-        <v>3904.374370802317</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="P44" t="n">
-        <v>3904.374370802317</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="Q44" t="n">
         <v>4360.4598503065</v>
@@ -7675,25 +7675,25 @@
         <v>4360.4598503065</v>
       </c>
       <c r="S44" t="n">
-        <v>4256.09255617964</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="T44" t="n">
-        <v>4035.166985224274</v>
+        <v>4218.526000879948</v>
       </c>
       <c r="U44" t="n">
-        <v>3776.812075820686</v>
+        <v>4218.526000879948</v>
       </c>
       <c r="V44" t="n">
-        <v>3776.812075820686</v>
+        <v>3861.036586006197</v>
       </c>
       <c r="W44" t="n">
-        <v>3380.420726121033</v>
+        <v>3464.645236306544</v>
       </c>
       <c r="X44" t="n">
-        <v>2968.70072728878</v>
+        <v>3052.925237474291</v>
       </c>
       <c r="Y44" t="n">
-        <v>2910.559474698618</v>
+        <v>2647.587967429182</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>87.20919700613</v>
       </c>
       <c r="I45" t="n">
-        <v>87.20919700613</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="J45" t="n">
-        <v>87.20919700613</v>
+        <v>366.3533292476329</v>
       </c>
       <c r="K45" t="n">
-        <v>677.6941235744696</v>
+        <v>956.8382558159725</v>
       </c>
       <c r="L45" t="n">
-        <v>1514.492931657376</v>
+        <v>1793.637063898879</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.492931657376</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="N45" t="n">
-        <v>1514.492931657376</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="O45" t="n">
-        <v>1514.492931657376</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="P45" t="n">
-        <v>1514.492931657376</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="Q45" t="n">
         <v>1895.89682758664</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>860.3370813327534</v>
+        <v>1170.390319530367</v>
       </c>
       <c r="C46" t="n">
-        <v>688.3645182116694</v>
+        <v>998.4177564092828</v>
       </c>
       <c r="D46" t="n">
-        <v>525.0477453384401</v>
+        <v>835.1009835360535</v>
       </c>
       <c r="E46" t="n">
-        <v>358.8395394912936</v>
+        <v>668.892777688907</v>
       </c>
       <c r="F46" t="n">
-        <v>186.977765265854</v>
+        <v>497.0310034634675</v>
       </c>
       <c r="G46" t="n">
-        <v>186.977765265854</v>
+        <v>330.7740337576996</v>
       </c>
       <c r="H46" t="n">
         <v>186.977765265854</v>
@@ -7842,16 +7842,16 @@
         <v>1526.92476735177</v>
       </c>
       <c r="V46" t="n">
-        <v>1245.213299959799</v>
+        <v>1526.92476735177</v>
       </c>
       <c r="W46" t="n">
-        <v>970.3608961323123</v>
+        <v>1360.556288242432</v>
       </c>
       <c r="X46" t="n">
-        <v>860.3370813327534</v>
+        <v>1360.556288242432</v>
       </c>
       <c r="Y46" t="n">
-        <v>860.3370813327534</v>
+        <v>1360.556288242432</v>
       </c>
     </row>
   </sheetData>
@@ -7981,19 +7981,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104035</v>
+        <v>546.3101998434627</v>
       </c>
       <c r="L2" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>547.9365584046774</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
         <v>20.61111433333334</v>
@@ -8066,10 +8066,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279221</v>
+        <v>181.3705437721211</v>
       </c>
       <c r="N3" t="n">
-        <v>89.24714193129947</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O3" t="n">
         <v>579.3997028378163</v>
@@ -8081,7 +8081,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
@@ -8230,16 +8230,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>547.9365584046775</v>
       </c>
       <c r="P5" t="n">
-        <v>300.5986134498011</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
@@ -8303,19 +8303,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>548.7966943283913</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>180.0446044646217</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8452,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L8" t="n">
-        <v>977.3272420480539</v>
+        <v>455.3225745104015</v>
       </c>
       <c r="M8" t="n">
-        <v>177.2778237013238</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O8" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
         <v>753.0089771212694</v>
@@ -8476,7 +8476,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
@@ -8543,16 +8543,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>859.4646438927568</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>921.6378271075471</v>
+        <v>293.0516819980064</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>585.663093172845</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
         <v>977.3272420480539</v>
@@ -8704,13 +8704,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>691.5123106689887</v>
       </c>
       <c r="P11" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
         <v>35.03264989479647</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
@@ -8777,22 +8777,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N12" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>418.2396143276235</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8941,16 +8941,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>206.5024180439405</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>325.4305931061299</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,19 +9002,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>618.848654609434</v>
+        <v>292.2790261091175</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
@@ -9023,10 +9023,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>102.7777664082851</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>106.5207073584907</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
@@ -9251,22 +9251,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>567.4935903612297</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9476,34 +9476,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>43.54168314167958</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>105.0107851302144</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>849.7962292804214</v>
       </c>
       <c r="M23" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9658,10 +9658,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>227.5743145228559</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
         <v>23.09678051232798</v>
@@ -9731,13 +9731,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>921.6378271075471</v>
+        <v>777.3239949621001</v>
       </c>
       <c r="P24" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9883,7 +9883,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9892,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>397.6042905607445</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10129,7 +10129,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>439.2211815900449</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>809.3863451554519</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10366,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,19 +10427,19 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
-        <v>145.7645730147406</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10603,7 +10603,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286672</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10661,25 +10661,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>400.8313794692496</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>749.810964578424</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
@@ -10840,7 +10840,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q38" t="n">
         <v>36.12467460459804</v>
@@ -10898,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N39" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>758.5002654165255</v>
+        <v>558.94015193069</v>
       </c>
       <c r="L41" t="n">
         <v>977.3272420480539</v>
@@ -11074,7 +11074,7 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>325.2461906519227</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>37.5753618102313</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>20.61111433333334</v>
@@ -11147,22 +11147,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>781.6471621574455</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>567.4935903612297</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11308,16 +11308,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>850.5546308803624</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>325.2461906519227</v>
       </c>
       <c r="P44" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
         <v>35.03264989479647</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>618.848654609434</v>
@@ -11384,7 +11384,7 @@
         <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>126.389471106026</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
@@ -11396,7 +11396,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>408.0034988235887</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>43.65390176956345</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,13 +23311,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>154.3751838084194</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23500,10 +23500,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>375.5986415740073</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>209.8031647569345</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,10 +23709,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>71.75293471843105</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>78.98801627622801</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>5.035930737460234</v>
       </c>
       <c r="C22" t="n">
-        <v>75.43346327040824</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -24372,16 +24372,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>59.64236734312286</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>18.44967133088755</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -24417,10 +24417,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>65.23940003763292</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>158.0809632437116</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>193.1523949399869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="D34" t="n">
-        <v>110.0981677402028</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>179.4924275998956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>111.8076272173316</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,22 +25599,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>59.37454630891094</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>402.7488832647053</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>257.6988049940099</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,10 +25681,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>16.38488139846518</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>78.20180431352659</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>343.7240572803978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>107.3990854709674</v>
       </c>
       <c r="X46" t="n">
-        <v>131.2146809370897</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>566716.9041964319</v>
+        <v>566716.904196432</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>632284.2035296282</v>
+        <v>632284.2035296281</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>632284.2035296282</v>
+        <v>632284.2035296281</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>632284.2035296282</v>
+        <v>632284.2035296281</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>632284.2035296282</v>
+        <v>632284.2035296281</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>566716.904196432</v>
+        <v>566716.9041964321</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>566716.9041964321</v>
+        <v>566716.904196432</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>364026.6675069772</v>
+        <v>364026.667506977</v>
       </c>
       <c r="C2" t="n">
-        <v>364026.6675069769</v>
+        <v>364026.6675069771</v>
       </c>
       <c r="D2" t="n">
-        <v>364026.6675069771</v>
+        <v>364026.667506977</v>
       </c>
       <c r="E2" t="n">
         <v>314842.7245535732</v>
@@ -26340,22 +26340,22 @@
         <v>351269.0019609047</v>
       </c>
       <c r="K2" t="n">
+        <v>351269.0019609046</v>
+      </c>
+      <c r="L2" t="n">
         <v>351269.0019609047</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>351269.0019609046</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>351269.0019609047</v>
       </c>
-      <c r="N2" t="n">
-        <v>351269.0019609046</v>
-      </c>
       <c r="O2" t="n">
-        <v>314842.724553573</v>
+        <v>314842.7245535733</v>
       </c>
       <c r="P2" t="n">
-        <v>314842.7245535732</v>
+        <v>314842.7245535731</v>
       </c>
     </row>
     <row r="3">
@@ -26426,7 +26426,7 @@
         <v>45626.98260689655</v>
       </c>
       <c r="E4" t="n">
-        <v>710.8621518139972</v>
+        <v>710.8621518139971</v>
       </c>
       <c r="F4" t="n">
         <v>710.8621518139971</v>
@@ -26435,16 +26435,16 @@
         <v>800.0602599433671</v>
       </c>
       <c r="H4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="I4" t="n">
         <v>800.0602599433671</v>
       </c>
       <c r="J4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433673</v>
       </c>
       <c r="K4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="L4" t="n">
         <v>800.0602599433673</v>
@@ -26453,7 +26453,7 @@
         <v>800.0602599433672</v>
       </c>
       <c r="N4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="O4" t="n">
         <v>710.8621518139971</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29332.06627748109</v>
+        <v>-29332.06627748127</v>
       </c>
       <c r="C6" t="n">
-        <v>157072.6671372559</v>
+        <v>157072.667137256</v>
       </c>
       <c r="D6" t="n">
-        <v>52651.72993834177</v>
+        <v>52651.72993834165</v>
       </c>
       <c r="E6" t="n">
-        <v>247852.8726771004</v>
+        <v>247656.1369052869</v>
       </c>
       <c r="F6" t="n">
-        <v>247852.8726771004</v>
+        <v>247656.1369052868</v>
       </c>
       <c r="G6" t="n">
-        <v>221007.5489823893</v>
+        <v>220956.518320205</v>
       </c>
       <c r="H6" t="n">
-        <v>272718.8795125316</v>
+        <v>272667.8488503473</v>
       </c>
       <c r="I6" t="n">
-        <v>272718.8795125316</v>
+        <v>272667.8488503473</v>
       </c>
       <c r="J6" t="n">
-        <v>127185.2095777151</v>
+        <v>127134.1789155309</v>
       </c>
       <c r="K6" t="n">
-        <v>272718.8795125316</v>
+        <v>272667.8488503473</v>
       </c>
       <c r="L6" t="n">
-        <v>137596.8469682899</v>
+        <v>137545.8163061056</v>
       </c>
       <c r="M6" t="n">
-        <v>272718.8795125317</v>
+        <v>272667.8488503472</v>
       </c>
       <c r="N6" t="n">
-        <v>272718.8795125315</v>
+        <v>272667.8488503473</v>
       </c>
       <c r="O6" t="n">
-        <v>247852.8726771002</v>
+        <v>247656.1369052869</v>
       </c>
       <c r="P6" t="n">
-        <v>247852.8726771004</v>
+        <v>247656.1369052867</v>
       </c>
     </row>
   </sheetData>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>53.82850041003991</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
+        <v>45.00074868260094</v>
+      </c>
+      <c r="E2" t="n">
         <v>400</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27593,10 +27593,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>193.5321081956625</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>112.3975656955433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>93.5933704773629</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27633,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>120.7436121680615</v>
       </c>
     </row>
     <row r="6">
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -27833,7 +27833,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>233.4515955166426</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>228.8628593637843</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>21.68412084899478</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -34701,19 +34701,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>510.5455990486533</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>510.5455990486533</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34774,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -34786,10 +34786,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>158.2737632597931</v>
+      </c>
+      <c r="N3" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="N3" t="n">
-        <v>67.9041137177578</v>
       </c>
       <c r="O3" t="n">
         <v>556.2278131155941</v>
@@ -34801,7 +34801,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,14 +34935,14 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
@@ -34950,16 +34950,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
+        <v>510.5455990486534</v>
+      </c>
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="P5" t="n">
-        <v>263.0232516395698</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35023,19 +35023,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
-        <v>527.4536661148496</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L8" t="n">
-        <v>939.015199615431</v>
+        <v>417.0105320777785</v>
       </c>
       <c r="M8" t="n">
-        <v>139.846560801892</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O8" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>715.433615311038</v>
@@ -35196,7 +35196,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35263,16 +35263,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>838.1216156792152</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>898.4659373853249</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>549.8984923780357</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
         <v>939.015199615431</v>
@@ -35424,13 +35424,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>654.1213513129646</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35497,22 +35497,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N12" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>395.492576038645</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35661,16 +35661,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>169.1114586879164</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>287.8552312958986</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>596.4494207761006</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35743,10 +35743,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>81.00692520345643</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>82.84778796434657</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35971,22 +35971,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>20.4449026293516</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>83.23994392538575</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>939.015199615431</v>
+        <v>811.4841868477985</v>
       </c>
       <c r="M23" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36378,10 +36378,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36451,13 +36451,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>898.4659373853249</v>
+        <v>754.1521052398779</v>
       </c>
       <c r="P24" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36603,7 +36603,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36612,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>361.4796159561464</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36849,7 +36849,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>416.7060948758153</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>771.074302722829</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37086,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,19 +37147,19 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
-        <v>122.6677925024126</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37323,7 +37323,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184359</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>377.7345989569216</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37542,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
@@ -37560,7 +37560,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N39" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>722.7356646217162</v>
+        <v>523.1755511358807</v>
       </c>
       <c r="L41" t="n">
         <v>939.015199615431</v>
@@ -37794,7 +37794,7 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>287.8552312958986</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>760.3041339439038</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38028,16 +38028,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>813.2750080459164</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>287.8552312958986</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
         <v>596.4494207761006</v>
@@ -38104,7 +38104,7 @@
         <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>103.292690593698</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>385.2564605346102</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
